--- a/output/working_joined_hr1296.xlsx
+++ b/output/working_joined_hr1296.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BM236"/>
+  <dimension ref="A1:BM235"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -52614,7 +52614,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>not sponsoring</t>
+          <t>not_sponsoring</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -52868,7 +52868,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>not sponsoring</t>
+          <t>not_sponsoring</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -53122,7 +53122,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>not sponsoring</t>
+          <t>not_sponsoring</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -53620,7 +53620,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>not sponsoring</t>
+          <t>not_sponsoring</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -53875,7 +53875,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>not sponsoring</t>
+          <t>not_sponsoring</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -54135,7 +54135,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>not sponsoring</t>
+          <t>not_sponsoring</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -54395,7 +54395,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>not sponsoring</t>
+          <t>not_sponsoring</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -54649,7 +54649,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>not sponsoring</t>
+          <t>not_sponsoring</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -54909,7 +54909,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>not sponsoring</t>
+          <t>not_sponsoring</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -55163,7 +55163,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>not sponsoring</t>
+          <t>not_sponsoring</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -55412,7 +55412,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>not sponsoring</t>
+          <t>not_sponsoring</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -55667,7 +55667,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>not sponsoring</t>
+          <t>not_sponsoring</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -55927,7 +55927,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>not sponsoring</t>
+          <t>not_sponsoring</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -56182,7 +56182,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>not sponsoring</t>
+          <t>not_sponsoring</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -56382,7 +56382,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>not sponsoring</t>
+          <t>not_sponsoring</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -56636,7 +56636,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>not sponsoring</t>
+          <t>not_sponsoring</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -56890,7 +56890,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>not sponsoring</t>
+          <t>not_sponsoring</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -56900,17 +56900,22 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>P000197</t>
+          <t>P000258</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Nancy</t>
+          <t>Collin</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>C.</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>Pelosi</t>
+          <t>Peterson</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
@@ -56920,22 +56925,22 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>MN</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>7</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>0612</t>
+          <t>2707</t>
         </is>
       </c>
       <c r="K227" t="inlineStr">
         <is>
-          <t>H8CA05035</t>
+          <t>H2MN07014</t>
         </is>
       </c>
       <c r="L227" t="inlineStr">
@@ -56949,10 +56954,10 @@
         </is>
       </c>
       <c r="N227">
-        <v>86.8</v>
+        <v>52.1</v>
       </c>
       <c r="O227">
-        <v>13.2</v>
+        <v>47.9</v>
       </c>
       <c r="P227" t="inlineStr">
         <is>
@@ -56960,38 +56965,38 @@
         </is>
       </c>
       <c r="Q227">
-        <v>73.59999999999999</v>
+        <v>4.2</v>
       </c>
       <c r="R227" t="inlineStr">
         <is>
-          <t>California</t>
+          <t>Minnesota</t>
         </is>
       </c>
       <c r="S227" t="inlineStr">
         <is>
-          <t>CA-12</t>
+          <t>MN-07</t>
         </is>
       </c>
       <c r="U227">
-        <v>740337</v>
+        <v>663338</v>
       </c>
       <c r="V227">
-        <v>88364</v>
+        <v>52930</v>
       </c>
       <c r="W227">
-        <v>38.2</v>
+        <v>40.7</v>
       </c>
       <c r="X227">
-        <v>33.735</v>
+        <v>2.978</v>
       </c>
       <c r="Y227">
-        <v>3.516</v>
+        <v>9.205</v>
       </c>
       <c r="Z227">
-        <v>56.535</v>
+        <v>10.608</v>
       </c>
       <c r="AA227">
-        <v>56.325</v>
+        <v>21.486</v>
       </c>
       <c r="AB227">
         <v>55322</v>
@@ -57013,7 +57018,7 @@
       </c>
       <c r="AH227" t="inlineStr">
         <is>
-          <t>ABOVE</t>
+          <t>BELOW</t>
         </is>
       </c>
       <c r="AI227" t="inlineStr">
@@ -57023,53 +57028,53 @@
       </c>
       <c r="AJ227" t="inlineStr">
         <is>
-          <t>ABOVE</t>
+          <t>BELOW</t>
         </is>
       </c>
       <c r="AK227" t="inlineStr">
         <is>
-          <t>BELOW</t>
+          <t>ABOVE</t>
         </is>
       </c>
       <c r="AL227" t="inlineStr">
         <is>
-          <t>ABOVE</t>
+          <t>BELOW</t>
         </is>
       </c>
       <c r="AM227" t="inlineStr">
         <is>
-          <t>ABOVE</t>
+          <t>BELOW</t>
         </is>
       </c>
       <c r="AN227">
-        <v>80.90000000000001</v>
+        <v>52.5</v>
       </c>
       <c r="AO227">
-        <v>0</v>
+        <v>47.4</v>
       </c>
       <c r="AP227">
-        <v>85.2</v>
+        <v>30.8</v>
       </c>
       <c r="AQ227">
-        <v>8.6</v>
+        <v>61.4</v>
       </c>
       <c r="AR227">
-        <v>83.3</v>
+        <v>54.3</v>
       </c>
       <c r="AS227">
-        <v>16.7</v>
+        <v>45.7</v>
       </c>
       <c r="AT227">
-        <v>85.09999999999999</v>
+        <v>60.4</v>
       </c>
       <c r="AU227">
-        <v>14.9</v>
+        <v>34.8</v>
       </c>
       <c r="AV227">
-        <v>84.09999999999999</v>
+        <v>44</v>
       </c>
       <c r="AW227">
-        <v>12.5</v>
+        <v>53.7</v>
       </c>
       <c r="AX227" t="inlineStr">
         <is>
@@ -57078,7 +57083,7 @@
       </c>
       <c r="AY227" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>R</t>
         </is>
       </c>
       <c r="AZ227" t="inlineStr">
@@ -57093,7 +57098,7 @@
       </c>
       <c r="BB227" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>R</t>
         </is>
       </c>
       <c r="BC227" t="inlineStr">
@@ -57102,32 +57107,32 @@
         </is>
       </c>
       <c r="BD227">
-        <v>0</v>
+        <v>64.13</v>
       </c>
       <c r="BE227" t="inlineStr">
         <is>
-          <t>BELOW</t>
+          <t>ABOVE</t>
         </is>
       </c>
       <c r="BF227" t="inlineStr">
         <is>
-          <t>below 20th percentile</t>
+          <t>80th percentile and above</t>
         </is>
       </c>
       <c r="BG227" t="inlineStr">
         <is>
-          <t>$121,110.56</t>
+          <t>$25,434.69</t>
         </is>
       </c>
       <c r="BH227">
-        <v>121110.56</v>
+        <v>25434.69</v>
       </c>
       <c r="BI227">
         <v>38182.45</v>
       </c>
       <c r="BJ227" t="inlineStr">
         <is>
-          <t>ABOVE</t>
+          <t>BELOW</t>
         </is>
       </c>
       <c r="BK227" t="inlineStr">
@@ -57139,7 +57144,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>not sponsoring</t>
+          <t>not_sponsoring</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -57149,22 +57154,17 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>P000258</t>
+          <t>S001180</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Collin</t>
-        </is>
-      </c>
-      <c r="E228" t="inlineStr">
-        <is>
-          <t>C.</t>
+          <t>Kurt</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>Peterson</t>
+          <t>Schrader</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
@@ -57174,22 +57174,22 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>MN</t>
+          <t>OR</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>2707</t>
+          <t>4105</t>
         </is>
       </c>
       <c r="K228" t="inlineStr">
         <is>
-          <t>H2MN07014</t>
+          <t>H8OR05107</t>
         </is>
       </c>
       <c r="L228" t="inlineStr">
@@ -57203,10 +57203,10 @@
         </is>
       </c>
       <c r="N228">
-        <v>52.1</v>
+        <v>55.1</v>
       </c>
       <c r="O228">
-        <v>47.9</v>
+        <v>41.9</v>
       </c>
       <c r="P228" t="inlineStr">
         <is>
@@ -57214,38 +57214,38 @@
         </is>
       </c>
       <c r="Q228">
-        <v>4.2</v>
+        <v>13.2</v>
       </c>
       <c r="R228" t="inlineStr">
         <is>
-          <t>Minnesota</t>
+          <t>Oregon</t>
         </is>
       </c>
       <c r="S228" t="inlineStr">
         <is>
-          <t>MN-07</t>
+          <t>OR-05</t>
         </is>
       </c>
       <c r="U228">
-        <v>663338</v>
+        <v>795885</v>
       </c>
       <c r="V228">
-        <v>52930</v>
+        <v>56481</v>
       </c>
       <c r="W228">
-        <v>40.7</v>
+        <v>39.2</v>
       </c>
       <c r="X228">
-        <v>2.978</v>
+        <v>9.961</v>
       </c>
       <c r="Y228">
-        <v>9.205</v>
+        <v>9.831</v>
       </c>
       <c r="Z228">
-        <v>10.608</v>
+        <v>24.077</v>
       </c>
       <c r="AA228">
-        <v>21.486</v>
+        <v>29.316</v>
       </c>
       <c r="AB228">
         <v>55322</v>
@@ -57267,7 +57267,7 @@
       </c>
       <c r="AH228" t="inlineStr">
         <is>
-          <t>BELOW</t>
+          <t>ABOVE</t>
         </is>
       </c>
       <c r="AI228" t="inlineStr">
@@ -57296,34 +57296,34 @@
         </is>
       </c>
       <c r="AN228">
-        <v>52.5</v>
+        <v>53.5</v>
       </c>
       <c r="AO228">
-        <v>47.4</v>
+        <v>43</v>
       </c>
       <c r="AP228">
-        <v>30.8</v>
+        <v>46.4</v>
       </c>
       <c r="AQ228">
-        <v>61.4</v>
+        <v>42.3</v>
       </c>
       <c r="AR228">
-        <v>54.3</v>
+        <v>53.8</v>
       </c>
       <c r="AS228">
-        <v>45.7</v>
+        <v>39.4</v>
       </c>
       <c r="AT228">
-        <v>60.4</v>
+        <v>54</v>
       </c>
       <c r="AU228">
-        <v>34.8</v>
+        <v>42.4</v>
       </c>
       <c r="AV228">
-        <v>44</v>
+        <v>50.1</v>
       </c>
       <c r="AW228">
-        <v>53.7</v>
+        <v>46.8</v>
       </c>
       <c r="AX228" t="inlineStr">
         <is>
@@ -57332,7 +57332,7 @@
       </c>
       <c r="AY228" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>D</t>
         </is>
       </c>
       <c r="AZ228" t="inlineStr">
@@ -57347,7 +57347,7 @@
       </c>
       <c r="BB228" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>D</t>
         </is>
       </c>
       <c r="BC228" t="inlineStr">
@@ -57356,25 +57356,25 @@
         </is>
       </c>
       <c r="BD228">
-        <v>64.13</v>
+        <v>15.74</v>
       </c>
       <c r="BE228" t="inlineStr">
         <is>
-          <t>ABOVE</t>
+          <t>BELOW</t>
         </is>
       </c>
       <c r="BF228" t="inlineStr">
         <is>
-          <t>80th percentile and above</t>
+          <t>40th percentile</t>
         </is>
       </c>
       <c r="BG228" t="inlineStr">
         <is>
-          <t>$25,434.69</t>
+          <t>$33,224.25</t>
         </is>
       </c>
       <c r="BH228">
-        <v>25434.69</v>
+        <v>33224.25</v>
       </c>
       <c r="BI228">
         <v>38182.45</v>
@@ -57393,7 +57393,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>not sponsoring</t>
+          <t>not_sponsoring</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -57403,17 +57403,17 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>S001180</t>
+          <t>S001185</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Kurt</t>
+          <t>Terri</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>Schrader</t>
+          <t>Sewell</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
@@ -57423,22 +57423,22 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>OR</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>4105</t>
+          <t>0107</t>
         </is>
       </c>
       <c r="K229" t="inlineStr">
         <is>
-          <t>H8OR05107</t>
+          <t>H0AL07086</t>
         </is>
       </c>
       <c r="L229" t="inlineStr">
@@ -57452,10 +57452,10 @@
         </is>
       </c>
       <c r="N229">
-        <v>55.1</v>
+        <v>100</v>
       </c>
       <c r="O229">
-        <v>41.9</v>
+        <v>0</v>
       </c>
       <c r="P229" t="inlineStr">
         <is>
@@ -57463,38 +57463,38 @@
         </is>
       </c>
       <c r="Q229">
-        <v>13.2</v>
+        <v>100</v>
       </c>
       <c r="R229" t="inlineStr">
         <is>
-          <t>Oregon</t>
+          <t>Alabama</t>
         </is>
       </c>
       <c r="S229" t="inlineStr">
         <is>
-          <t>OR-05</t>
+          <t>AL-07</t>
         </is>
       </c>
       <c r="U229">
-        <v>795885</v>
+        <v>675230</v>
       </c>
       <c r="V229">
-        <v>56481</v>
+        <v>33366</v>
       </c>
       <c r="W229">
-        <v>39.2</v>
+        <v>35.8</v>
       </c>
       <c r="X229">
-        <v>9.961</v>
+        <v>2.556</v>
       </c>
       <c r="Y229">
-        <v>9.831</v>
+        <v>7.464</v>
       </c>
       <c r="Z229">
-        <v>24.077</v>
+        <v>67.965</v>
       </c>
       <c r="AA229">
-        <v>29.316</v>
+        <v>19.1</v>
       </c>
       <c r="AB229">
         <v>55322</v>
@@ -57516,12 +57516,12 @@
       </c>
       <c r="AH229" t="inlineStr">
         <is>
-          <t>ABOVE</t>
+          <t>BELOW</t>
         </is>
       </c>
       <c r="AI229" t="inlineStr">
         <is>
-          <t>ABOVE</t>
+          <t>BELOW</t>
         </is>
       </c>
       <c r="AJ229" t="inlineStr">
@@ -57531,12 +57531,12 @@
       </c>
       <c r="AK229" t="inlineStr">
         <is>
-          <t>ABOVE</t>
+          <t>BELOW</t>
         </is>
       </c>
       <c r="AL229" t="inlineStr">
         <is>
-          <t>BELOW</t>
+          <t>ABOVE</t>
         </is>
       </c>
       <c r="AM229" t="inlineStr">
@@ -57545,34 +57545,34 @@
         </is>
       </c>
       <c r="AN229">
-        <v>53.5</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="AO229">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="AP229">
-        <v>46.4</v>
+        <v>69.5</v>
       </c>
       <c r="AQ229">
-        <v>42.3</v>
+        <v>28.3</v>
       </c>
       <c r="AR229">
-        <v>53.8</v>
+        <v>100</v>
       </c>
       <c r="AS229">
-        <v>39.4</v>
+        <v>0</v>
       </c>
       <c r="AT229">
-        <v>54</v>
+        <v>75.8</v>
       </c>
       <c r="AU229">
-        <v>42.4</v>
+        <v>24.1</v>
       </c>
       <c r="AV229">
-        <v>50.1</v>
+        <v>72.5</v>
       </c>
       <c r="AW229">
-        <v>46.8</v>
+        <v>27</v>
       </c>
       <c r="AX229" t="inlineStr">
         <is>
@@ -57605,25 +57605,25 @@
         </is>
       </c>
       <c r="BD229">
-        <v>15.74</v>
+        <v>27.84</v>
       </c>
       <c r="BE229" t="inlineStr">
         <is>
-          <t>BELOW</t>
+          <t>ABOVE</t>
         </is>
       </c>
       <c r="BF229" t="inlineStr">
         <is>
-          <t>40th percentile</t>
+          <t>60th percentile</t>
         </is>
       </c>
       <c r="BG229" t="inlineStr">
         <is>
-          <t>$33,224.25</t>
+          <t>$32,939.86</t>
         </is>
       </c>
       <c r="BH229">
-        <v>33224.25</v>
+        <v>32939.86</v>
       </c>
       <c r="BI229">
         <v>38182.45</v>
@@ -57642,7 +57642,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>not sponsoring</t>
+          <t>not_sponsoring</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -57652,17 +57652,17 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>S001185</t>
+          <t>S001208</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Terri</t>
+          <t>Elissa</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>Sewell</t>
+          <t>Slotkin</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
@@ -57672,27 +57672,27 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>MI</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>0107</t>
+          <t>2608</t>
         </is>
       </c>
       <c r="K230" t="inlineStr">
         <is>
-          <t>H0AL07086</t>
+          <t>H8MI08102</t>
         </is>
       </c>
       <c r="L230" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="M230" t="inlineStr">
@@ -57701,10 +57701,10 @@
         </is>
       </c>
       <c r="N230">
-        <v>100</v>
+        <v>50.6</v>
       </c>
       <c r="O230">
-        <v>0</v>
+        <v>46.8</v>
       </c>
       <c r="P230" t="inlineStr">
         <is>
@@ -57712,38 +57712,43 @@
         </is>
       </c>
       <c r="Q230">
-        <v>100</v>
+        <v>3.8</v>
       </c>
       <c r="R230" t="inlineStr">
         <is>
-          <t>Alabama</t>
+          <t>Michigan</t>
         </is>
       </c>
       <c r="S230" t="inlineStr">
         <is>
-          <t>AL-07</t>
+          <t>MI-08</t>
+        </is>
+      </c>
+      <c r="T230" t="inlineStr">
+        <is>
+          <t>tossup</t>
         </is>
       </c>
       <c r="U230">
-        <v>675230</v>
+        <v>723429</v>
       </c>
       <c r="V230">
-        <v>33366</v>
+        <v>65205</v>
       </c>
       <c r="W230">
-        <v>35.8</v>
+        <v>38.1</v>
       </c>
       <c r="X230">
-        <v>2.556</v>
+        <v>7.381</v>
       </c>
       <c r="Y230">
-        <v>7.464</v>
+        <v>6.921</v>
       </c>
       <c r="Z230">
-        <v>67.965</v>
+        <v>17.401</v>
       </c>
       <c r="AA230">
-        <v>19.1</v>
+        <v>39.415</v>
       </c>
       <c r="AB230">
         <v>55322</v>
@@ -57765,12 +57770,12 @@
       </c>
       <c r="AH230" t="inlineStr">
         <is>
-          <t>BELOW</t>
+          <t>ABOVE</t>
         </is>
       </c>
       <c r="AI230" t="inlineStr">
         <is>
-          <t>BELOW</t>
+          <t>ABOVE</t>
         </is>
       </c>
       <c r="AJ230" t="inlineStr">
@@ -57785,76 +57790,76 @@
       </c>
       <c r="AL230" t="inlineStr">
         <is>
-          <t>ABOVE</t>
+          <t>BELOW</t>
         </is>
       </c>
       <c r="AM230" t="inlineStr">
         <is>
-          <t>BELOW</t>
+          <t>ABOVE</t>
         </is>
       </c>
       <c r="AN230">
-        <v>98.40000000000001</v>
+        <v>39.2</v>
       </c>
       <c r="AO230">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="AP230">
-        <v>69.5</v>
+        <v>43.8</v>
       </c>
       <c r="AQ230">
-        <v>28.3</v>
+        <v>50.5</v>
       </c>
       <c r="AR230">
-        <v>100</v>
+        <v>42.1</v>
       </c>
       <c r="AS230">
-        <v>0</v>
+        <v>54.6</v>
       </c>
       <c r="AT230">
-        <v>75.8</v>
+        <v>37.3</v>
       </c>
       <c r="AU230">
-        <v>24.1</v>
+        <v>58.6</v>
       </c>
       <c r="AV230">
-        <v>72.5</v>
+        <v>47.9</v>
       </c>
       <c r="AW230">
-        <v>27</v>
+        <v>51.1</v>
       </c>
       <c r="AX230" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>R</t>
         </is>
       </c>
       <c r="AY230" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>R</t>
         </is>
       </c>
       <c r="AZ230" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>R</t>
         </is>
       </c>
       <c r="BA230" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>R</t>
         </is>
       </c>
       <c r="BB230" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>R</t>
         </is>
       </c>
       <c r="BC230" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>R</t>
         </is>
       </c>
       <c r="BD230">
-        <v>27.84</v>
+        <v>20.77</v>
       </c>
       <c r="BE230" t="inlineStr">
         <is>
@@ -57863,35 +57868,41 @@
       </c>
       <c r="BF230" t="inlineStr">
         <is>
-          <t>60th percentile</t>
+          <t>40th percentile</t>
         </is>
       </c>
       <c r="BG230" t="inlineStr">
         <is>
-          <t>$32,939.86</t>
+          <t>$38,613.36</t>
         </is>
       </c>
       <c r="BH230">
-        <v>32939.86</v>
+        <v>38613.36</v>
       </c>
       <c r="BI230">
         <v>38182.45</v>
       </c>
       <c r="BJ230" t="inlineStr">
         <is>
-          <t>BELOW</t>
+          <t>ABOVE</t>
         </is>
       </c>
       <c r="BK230" t="inlineStr">
         <is>
-          <t>NA__D</t>
-        </is>
+          <t>tossup__R</t>
+        </is>
+      </c>
+      <c r="BL230">
+        <v>-16.8</v>
+      </c>
+      <c r="BM230">
+        <v>20.6</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>not sponsoring</t>
+          <t>not_sponsoring</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -57901,17 +57912,17 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>S001208</t>
+          <t>T000460</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Elissa</t>
+          <t>Mike</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>Slotkin</t>
+          <t>Thompson</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
@@ -57921,27 +57932,27 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>MI</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>2608</t>
+          <t>0605</t>
         </is>
       </c>
       <c r="K231" t="inlineStr">
         <is>
-          <t>H8MI08102</t>
+          <t>H8CA01109</t>
         </is>
       </c>
       <c r="L231" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="M231" t="inlineStr">
@@ -57950,10 +57961,10 @@
         </is>
       </c>
       <c r="N231">
-        <v>50.6</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="O231">
-        <v>46.8</v>
+        <v>0</v>
       </c>
       <c r="P231" t="inlineStr">
         <is>
@@ -57961,43 +57972,38 @@
         </is>
       </c>
       <c r="Q231">
-        <v>3.8</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="R231" t="inlineStr">
         <is>
-          <t>Michigan</t>
+          <t>California</t>
         </is>
       </c>
       <c r="S231" t="inlineStr">
         <is>
-          <t>MI-08</t>
-        </is>
-      </c>
-      <c r="T231" t="inlineStr">
-        <is>
-          <t>tossup</t>
+          <t>CA-05</t>
         </is>
       </c>
       <c r="U231">
-        <v>723429</v>
+        <v>724966</v>
       </c>
       <c r="V231">
-        <v>65205</v>
+        <v>67273</v>
       </c>
       <c r="W231">
-        <v>38.1</v>
+        <v>39.9</v>
       </c>
       <c r="X231">
-        <v>7.381</v>
+        <v>20.832</v>
       </c>
       <c r="Y231">
-        <v>6.921</v>
+        <v>7.423</v>
       </c>
       <c r="Z231">
-        <v>17.401</v>
+        <v>49.417</v>
       </c>
       <c r="AA231">
-        <v>39.415</v>
+        <v>30.383</v>
       </c>
       <c r="AB231">
         <v>55322</v>
@@ -58029,7 +58035,7 @@
       </c>
       <c r="AJ231" t="inlineStr">
         <is>
-          <t>BELOW</t>
+          <t>ABOVE</t>
         </is>
       </c>
       <c r="AK231" t="inlineStr">
@@ -58039,7 +58045,7 @@
       </c>
       <c r="AL231" t="inlineStr">
         <is>
-          <t>BELOW</t>
+          <t>ABOVE</t>
         </is>
       </c>
       <c r="AM231" t="inlineStr">
@@ -58048,71 +58054,71 @@
         </is>
       </c>
       <c r="AN231">
-        <v>39.2</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="AO231">
-        <v>56</v>
+        <v>23.1</v>
       </c>
       <c r="AP231">
-        <v>43.8</v>
+        <v>68.8</v>
       </c>
       <c r="AQ231">
-        <v>50.5</v>
+        <v>24.2</v>
       </c>
       <c r="AR231">
-        <v>42.1</v>
+        <v>75.7</v>
       </c>
       <c r="AS231">
-        <v>54.6</v>
+        <v>0</v>
       </c>
       <c r="AT231">
-        <v>37.3</v>
+        <v>74.5</v>
       </c>
       <c r="AU231">
-        <v>58.6</v>
+        <v>25.5</v>
       </c>
       <c r="AV231">
-        <v>47.9</v>
+        <v>69.7</v>
       </c>
       <c r="AW231">
-        <v>51.1</v>
+        <v>27.4</v>
       </c>
       <c r="AX231" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>D</t>
         </is>
       </c>
       <c r="AY231" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>D</t>
         </is>
       </c>
       <c r="AZ231" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>D</t>
         </is>
       </c>
       <c r="BA231" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>D</t>
         </is>
       </c>
       <c r="BB231" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>D</t>
         </is>
       </c>
       <c r="BC231" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>D</t>
         </is>
       </c>
       <c r="BD231">
-        <v>20.77</v>
+        <v>7.79</v>
       </c>
       <c r="BE231" t="inlineStr">
         <is>
-          <t>ABOVE</t>
+          <t>BELOW</t>
         </is>
       </c>
       <c r="BF231" t="inlineStr">
@@ -58122,36 +58128,36 @@
       </c>
       <c r="BG231" t="inlineStr">
         <is>
-          <t>$38,613.36</t>
+          <t>$38,160.38</t>
         </is>
       </c>
       <c r="BH231">
-        <v>38613.36</v>
+        <v>38160.38000000001</v>
       </c>
       <c r="BI231">
         <v>38182.45</v>
       </c>
       <c r="BJ231" t="inlineStr">
         <is>
-          <t>ABOVE</t>
+          <t>BELOW</t>
         </is>
       </c>
       <c r="BK231" t="inlineStr">
         <is>
-          <t>tossup__R</t>
+          <t>NA__D</t>
         </is>
       </c>
       <c r="BL231">
-        <v>-16.8</v>
+        <v>53.8</v>
       </c>
       <c r="BM231">
-        <v>20.6</v>
+        <v>25.1</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>not sponsoring</t>
+          <t>not_sponsoring</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -58161,17 +58167,17 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>T000460</t>
+          <t>T000484</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>Mike</t>
+          <t>Xochitl</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>Thompson</t>
+          <t>Torres Small</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
@@ -58181,27 +58187,27 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>NM</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>0605</t>
+          <t>3502</t>
         </is>
       </c>
       <c r="K232" t="inlineStr">
         <is>
-          <t>H8CA01109</t>
+          <t>H8NM02248</t>
         </is>
       </c>
       <c r="L232" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="M232" t="inlineStr">
@@ -58210,10 +58216,10 @@
         </is>
       </c>
       <c r="N232">
-        <v>78.90000000000001</v>
+        <v>50.9</v>
       </c>
       <c r="O232">
-        <v>0</v>
+        <v>49.1</v>
       </c>
       <c r="P232" t="inlineStr">
         <is>
@@ -58221,38 +58227,43 @@
         </is>
       </c>
       <c r="Q232">
-        <v>78.90000000000001</v>
+        <v>1.8</v>
       </c>
       <c r="R232" t="inlineStr">
         <is>
-          <t>California</t>
+          <t>New Mexico</t>
         </is>
       </c>
       <c r="S232" t="inlineStr">
         <is>
-          <t>CA-05</t>
+          <t>NM-02</t>
+        </is>
+      </c>
+      <c r="T232" t="inlineStr">
+        <is>
+          <t>tossup</t>
         </is>
       </c>
       <c r="U232">
-        <v>724966</v>
+        <v>698524</v>
       </c>
       <c r="V232">
-        <v>67273</v>
+        <v>41600</v>
       </c>
       <c r="W232">
-        <v>39.9</v>
+        <v>35.9</v>
       </c>
       <c r="X232">
-        <v>20.832</v>
+        <v>11.782</v>
       </c>
       <c r="Y232">
-        <v>7.423</v>
+        <v>10.399</v>
       </c>
       <c r="Z232">
-        <v>49.417</v>
+        <v>62.273</v>
       </c>
       <c r="AA232">
-        <v>30.383</v>
+        <v>20.589</v>
       </c>
       <c r="AB232">
         <v>55322</v>
@@ -58274,22 +58285,22 @@
       </c>
       <c r="AH232" t="inlineStr">
         <is>
-          <t>ABOVE</t>
+          <t>BELOW</t>
         </is>
       </c>
       <c r="AI232" t="inlineStr">
         <is>
-          <t>ABOVE</t>
+          <t>BELOW</t>
         </is>
       </c>
       <c r="AJ232" t="inlineStr">
         <is>
-          <t>ABOVE</t>
+          <t>BELOW</t>
         </is>
       </c>
       <c r="AK232" t="inlineStr">
         <is>
-          <t>BELOW</t>
+          <t>ABOVE</t>
         </is>
       </c>
       <c r="AL232" t="inlineStr">
@@ -58299,89 +58310,89 @@
       </c>
       <c r="AM232" t="inlineStr">
         <is>
-          <t>ABOVE</t>
+          <t>BELOW</t>
         </is>
       </c>
       <c r="AN232">
-        <v>76.90000000000001</v>
+        <v>37.2</v>
       </c>
       <c r="AO232">
-        <v>23.1</v>
+        <v>62.7</v>
       </c>
       <c r="AP232">
-        <v>68.8</v>
+        <v>39.9</v>
       </c>
       <c r="AQ232">
-        <v>24.2</v>
+        <v>50.1</v>
       </c>
       <c r="AR232">
-        <v>75.7</v>
+        <v>35.5</v>
       </c>
       <c r="AS232">
-        <v>0</v>
+        <v>64.5</v>
       </c>
       <c r="AT232">
-        <v>74.5</v>
+        <v>40.9</v>
       </c>
       <c r="AU232">
-        <v>25.5</v>
+        <v>59.1</v>
       </c>
       <c r="AV232">
-        <v>69.7</v>
+        <v>44.9</v>
       </c>
       <c r="AW232">
-        <v>27.4</v>
+        <v>51.7</v>
       </c>
       <c r="AX232" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>R</t>
         </is>
       </c>
       <c r="AY232" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>R</t>
         </is>
       </c>
       <c r="AZ232" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>R</t>
         </is>
       </c>
       <c r="BA232" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>R</t>
         </is>
       </c>
       <c r="BB232" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>R</t>
         </is>
       </c>
       <c r="BC232" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>R</t>
         </is>
       </c>
       <c r="BD232">
-        <v>7.79</v>
+        <v>27.96</v>
       </c>
       <c r="BE232" t="inlineStr">
         <is>
-          <t>BELOW</t>
+          <t>ABOVE</t>
         </is>
       </c>
       <c r="BF232" t="inlineStr">
         <is>
-          <t>40th percentile</t>
+          <t>60th percentile</t>
         </is>
       </c>
       <c r="BG232" t="inlineStr">
         <is>
-          <t>$38,160.38</t>
+          <t>$24,936.05</t>
         </is>
       </c>
       <c r="BH232">
-        <v>38160.38000000001</v>
+        <v>24936.05</v>
       </c>
       <c r="BI232">
         <v>38182.45</v>
@@ -58393,20 +58404,20 @@
       </c>
       <c r="BK232" t="inlineStr">
         <is>
-          <t>NA__D</t>
+          <t>tossup__R</t>
         </is>
       </c>
       <c r="BL232">
-        <v>53.8</v>
+        <v>-25.5</v>
       </c>
       <c r="BM232">
-        <v>25.1</v>
+        <v>27.3</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>not sponsoring</t>
+          <t>not_sponsoring</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -58416,17 +58427,17 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>T000484</t>
+          <t>U000040</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>Xochitl</t>
+          <t>Lauren</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>Torres Small</t>
+          <t>Underwood</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
@@ -58436,22 +58447,22 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>NM</t>
+          <t>IL</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>14</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>3502</t>
+          <t>1714</t>
         </is>
       </c>
       <c r="K233" t="inlineStr">
         <is>
-          <t>H8NM02248</t>
+          <t>H8IL14174</t>
         </is>
       </c>
       <c r="L233" t="inlineStr">
@@ -58465,10 +58476,10 @@
         </is>
       </c>
       <c r="N233">
-        <v>50.9</v>
+        <v>52.5</v>
       </c>
       <c r="O233">
-        <v>49.1</v>
+        <v>47.5</v>
       </c>
       <c r="P233" t="inlineStr">
         <is>
@@ -58476,43 +58487,43 @@
         </is>
       </c>
       <c r="Q233">
-        <v>1.8</v>
+        <v>5</v>
       </c>
       <c r="R233" t="inlineStr">
         <is>
-          <t>New Mexico</t>
+          <t>Illinois</t>
         </is>
       </c>
       <c r="S233" t="inlineStr">
         <is>
-          <t>NM-02</t>
+          <t>IL-14</t>
         </is>
       </c>
       <c r="T233" t="inlineStr">
         <is>
-          <t>tossup</t>
+          <t>lean republican</t>
         </is>
       </c>
       <c r="U233">
-        <v>698524</v>
+        <v>725478</v>
       </c>
       <c r="V233">
-        <v>41600</v>
+        <v>86449</v>
       </c>
       <c r="W233">
-        <v>35.9</v>
+        <v>38.8</v>
       </c>
       <c r="X233">
-        <v>11.782</v>
+        <v>9.355</v>
       </c>
       <c r="Y233">
-        <v>10.399</v>
+        <v>6.597</v>
       </c>
       <c r="Z233">
-        <v>62.273</v>
+        <v>20.733</v>
       </c>
       <c r="AA233">
-        <v>20.589</v>
+        <v>39.604</v>
       </c>
       <c r="AB233">
         <v>55322</v>
@@ -58534,12 +58545,12 @@
       </c>
       <c r="AH233" t="inlineStr">
         <is>
-          <t>BELOW</t>
+          <t>ABOVE</t>
         </is>
       </c>
       <c r="AI233" t="inlineStr">
         <is>
-          <t>BELOW</t>
+          <t>ABOVE</t>
         </is>
       </c>
       <c r="AJ233" t="inlineStr">
@@ -58549,48 +58560,48 @@
       </c>
       <c r="AK233" t="inlineStr">
         <is>
-          <t>ABOVE</t>
+          <t>BELOW</t>
         </is>
       </c>
       <c r="AL233" t="inlineStr">
         <is>
-          <t>ABOVE</t>
+          <t>BELOW</t>
         </is>
       </c>
       <c r="AM233" t="inlineStr">
         <is>
-          <t>BELOW</t>
+          <t>ABOVE</t>
         </is>
       </c>
       <c r="AN233">
-        <v>37.2</v>
+        <v>40.7</v>
       </c>
       <c r="AO233">
-        <v>62.7</v>
+        <v>59.3</v>
       </c>
       <c r="AP233">
-        <v>39.9</v>
+        <v>45.3</v>
       </c>
       <c r="AQ233">
-        <v>50.1</v>
+        <v>49.3</v>
       </c>
       <c r="AR233">
-        <v>35.5</v>
+        <v>34.6</v>
       </c>
       <c r="AS233">
-        <v>64.5</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="AT233">
-        <v>40.9</v>
+        <v>41.2</v>
       </c>
       <c r="AU233">
-        <v>59.1</v>
+        <v>58.8</v>
       </c>
       <c r="AV233">
-        <v>44.9</v>
+        <v>44.2</v>
       </c>
       <c r="AW233">
-        <v>51.7</v>
+        <v>54.2</v>
       </c>
       <c r="AX233" t="inlineStr">
         <is>
@@ -58623,25 +58634,25 @@
         </is>
       </c>
       <c r="BD233">
-        <v>27.96</v>
+        <v>10.14</v>
       </c>
       <c r="BE233" t="inlineStr">
         <is>
-          <t>ABOVE</t>
+          <t>BELOW</t>
         </is>
       </c>
       <c r="BF233" t="inlineStr">
         <is>
-          <t>60th percentile</t>
+          <t>40th percentile</t>
         </is>
       </c>
       <c r="BG233" t="inlineStr">
         <is>
-          <t>$24,936.05</t>
+          <t>$30,894.12</t>
         </is>
       </c>
       <c r="BH233">
-        <v>24936.05</v>
+        <v>30894.12</v>
       </c>
       <c r="BI233">
         <v>38182.45</v>
@@ -58653,20 +58664,20 @@
       </c>
       <c r="BK233" t="inlineStr">
         <is>
-          <t>tossup__R</t>
+          <t>lean republican__R</t>
         </is>
       </c>
       <c r="BL233">
-        <v>-25.5</v>
+        <v>-18.59999999999999</v>
       </c>
       <c r="BM233">
-        <v>27.3</v>
+        <v>23.59999999999999</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>not sponsoring</t>
+          <t>not_sponsoring</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -58676,17 +58687,17 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>U000040</t>
+          <t>V000133</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>Lauren</t>
+          <t>Jefferson</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>Underwood</t>
+          <t>Van Drew</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
@@ -58696,22 +58707,22 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>IL</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>1714</t>
+          <t>3402</t>
         </is>
       </c>
       <c r="K234" t="inlineStr">
         <is>
-          <t>H8IL14174</t>
+          <t>H8NJ02166</t>
         </is>
       </c>
       <c r="L234" t="inlineStr">
@@ -58725,10 +58736,10 @@
         </is>
       </c>
       <c r="N234">
-        <v>52.5</v>
+        <v>52.9</v>
       </c>
       <c r="O234">
-        <v>47.5</v>
+        <v>45.2</v>
       </c>
       <c r="P234" t="inlineStr">
         <is>
@@ -58736,43 +58747,43 @@
         </is>
       </c>
       <c r="Q234">
-        <v>5</v>
+        <v>7.7</v>
       </c>
       <c r="R234" t="inlineStr">
         <is>
-          <t>Illinois</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="S234" t="inlineStr">
         <is>
-          <t>IL-14</t>
+          <t>NJ-02</t>
         </is>
       </c>
       <c r="T234" t="inlineStr">
         <is>
-          <t>lean republican</t>
+          <t>likely democratic</t>
         </is>
       </c>
       <c r="U234">
-        <v>725478</v>
+        <v>729824</v>
       </c>
       <c r="V234">
-        <v>86449</v>
+        <v>59785</v>
       </c>
       <c r="W234">
-        <v>38.8</v>
+        <v>41.4</v>
       </c>
       <c r="X234">
-        <v>9.355</v>
+        <v>10.513</v>
       </c>
       <c r="Y234">
-        <v>6.597</v>
+        <v>7.673</v>
       </c>
       <c r="Z234">
-        <v>20.733</v>
+        <v>33.95399999999999</v>
       </c>
       <c r="AA234">
-        <v>39.604</v>
+        <v>24.78</v>
       </c>
       <c r="AB234">
         <v>55322</v>
@@ -58819,38 +58830,38 @@
       </c>
       <c r="AM234" t="inlineStr">
         <is>
-          <t>ABOVE</t>
+          <t>BELOW</t>
         </is>
       </c>
       <c r="AN234">
-        <v>40.7</v>
+        <v>37.2</v>
       </c>
       <c r="AO234">
-        <v>59.3</v>
+        <v>59.2</v>
       </c>
       <c r="AP234">
-        <v>45.3</v>
+        <v>46</v>
       </c>
       <c r="AQ234">
-        <v>49.3</v>
+        <v>50.6</v>
       </c>
       <c r="AR234">
-        <v>34.6</v>
+        <v>37.3</v>
       </c>
       <c r="AS234">
-        <v>65.40000000000001</v>
+        <v>61.5</v>
       </c>
       <c r="AT234">
-        <v>41.2</v>
+        <v>40.3</v>
       </c>
       <c r="AU234">
-        <v>58.8</v>
+        <v>57.7</v>
       </c>
       <c r="AV234">
-        <v>44.2</v>
+        <v>53.7</v>
       </c>
       <c r="AW234">
-        <v>54.2</v>
+        <v>45.5</v>
       </c>
       <c r="AX234" t="inlineStr">
         <is>
@@ -58874,16 +58885,16 @@
       </c>
       <c r="BB234" t="inlineStr">
         <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="BC234" t="inlineStr">
+        <is>
           <t>R</t>
         </is>
       </c>
-      <c r="BC234" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
       <c r="BD234">
-        <v>10.14</v>
+        <v>19.45</v>
       </c>
       <c r="BE234" t="inlineStr">
         <is>
@@ -58897,11 +58908,11 @@
       </c>
       <c r="BG234" t="inlineStr">
         <is>
-          <t>$30,894.12</t>
+          <t>$29,925.96</t>
         </is>
       </c>
       <c r="BH234">
-        <v>30894.12</v>
+        <v>29925.96</v>
       </c>
       <c r="BI234">
         <v>38182.45</v>
@@ -58913,20 +58924,20 @@
       </c>
       <c r="BK234" t="inlineStr">
         <is>
-          <t>lean republican__R</t>
+          <t>likely democratic__R</t>
         </is>
       </c>
       <c r="BL234">
-        <v>-18.59999999999999</v>
+        <v>-22</v>
       </c>
       <c r="BM234">
-        <v>23.59999999999999</v>
+        <v>29.7</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>not sponsoring</t>
+          <t>not_sponsoring</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -58936,17 +58947,17 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>V000133</t>
+          <t>V000132</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Jefferson</t>
+          <t>Filemon</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>Van Drew</t>
+          <t>Vela</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
@@ -58956,27 +58967,27 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>TX</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>34</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>3402</t>
+          <t>4834</t>
         </is>
       </c>
       <c r="K235" t="inlineStr">
         <is>
-          <t>H8NJ02166</t>
+          <t>H2TX27190</t>
         </is>
       </c>
       <c r="L235" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="M235" t="inlineStr">
@@ -58985,10 +58996,10 @@
         </is>
       </c>
       <c r="N235">
-        <v>52.9</v>
+        <v>60</v>
       </c>
       <c r="O235">
-        <v>45.2</v>
+        <v>40</v>
       </c>
       <c r="P235" t="inlineStr">
         <is>
@@ -58996,43 +59007,38 @@
         </is>
       </c>
       <c r="Q235">
-        <v>7.7</v>
+        <v>20</v>
       </c>
       <c r="R235" t="inlineStr">
         <is>
-          <t>New Jersey</t>
+          <t>Texas</t>
         </is>
       </c>
       <c r="S235" t="inlineStr">
         <is>
-          <t>NJ-02</t>
-        </is>
-      </c>
-      <c r="T235" t="inlineStr">
-        <is>
-          <t>likely democratic</t>
+          <t>TX-34</t>
         </is>
       </c>
       <c r="U235">
-        <v>729824</v>
+        <v>718321</v>
       </c>
       <c r="V235">
-        <v>59785</v>
+        <v>36417</v>
       </c>
       <c r="W235">
-        <v>41.4</v>
+        <v>32.2</v>
       </c>
       <c r="X235">
-        <v>10.513</v>
+        <v>19.958</v>
       </c>
       <c r="Y235">
-        <v>7.673</v>
+        <v>5.846</v>
       </c>
       <c r="Z235">
-        <v>33.95399999999999</v>
+        <v>85.881</v>
       </c>
       <c r="AA235">
-        <v>24.78</v>
+        <v>15.065</v>
       </c>
       <c r="AB235">
         <v>55322</v>
@@ -59054,17 +59060,17 @@
       </c>
       <c r="AH235" t="inlineStr">
         <is>
-          <t>ABOVE</t>
+          <t>BELOW</t>
         </is>
       </c>
       <c r="AI235" t="inlineStr">
         <is>
-          <t>ABOVE</t>
+          <t>BELOW</t>
         </is>
       </c>
       <c r="AJ235" t="inlineStr">
         <is>
-          <t>BELOW</t>
+          <t>ABOVE</t>
         </is>
       </c>
       <c r="AK235" t="inlineStr">
@@ -59074,7 +59080,7 @@
       </c>
       <c r="AL235" t="inlineStr">
         <is>
-          <t>BELOW</t>
+          <t>ABOVE</t>
         </is>
       </c>
       <c r="AM235" t="inlineStr">
@@ -59083,53 +59089,53 @@
         </is>
       </c>
       <c r="AN235">
-        <v>37.2</v>
+        <v>62.7</v>
       </c>
       <c r="AO235">
-        <v>59.2</v>
+        <v>37.3</v>
       </c>
       <c r="AP235">
-        <v>46</v>
+        <v>59.1</v>
       </c>
       <c r="AQ235">
-        <v>50.6</v>
+        <v>37.6</v>
       </c>
       <c r="AR235">
-        <v>37.3</v>
+        <v>59.5</v>
       </c>
       <c r="AS235">
-        <v>61.5</v>
+        <v>38.6</v>
       </c>
       <c r="AT235">
-        <v>40.3</v>
+        <v>61.9</v>
       </c>
       <c r="AU235">
-        <v>57.7</v>
+        <v>36.2</v>
       </c>
       <c r="AV235">
-        <v>53.7</v>
+        <v>60.7</v>
       </c>
       <c r="AW235">
-        <v>45.5</v>
+        <v>38.3</v>
       </c>
       <c r="AX235" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>D</t>
         </is>
       </c>
       <c r="AY235" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>D</t>
         </is>
       </c>
       <c r="AZ235" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>D</t>
         </is>
       </c>
       <c r="BA235" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>D</t>
         </is>
       </c>
       <c r="BB235" t="inlineStr">
@@ -59139,11 +59145,11 @@
       </c>
       <c r="BC235" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>D</t>
         </is>
       </c>
       <c r="BD235">
-        <v>19.45</v>
+        <v>16.04</v>
       </c>
       <c r="BE235" t="inlineStr">
         <is>
@@ -59157,11 +59163,11 @@
       </c>
       <c r="BG235" t="inlineStr">
         <is>
-          <t>$29,925.96</t>
+          <t>$18,865.00</t>
         </is>
       </c>
       <c r="BH235">
-        <v>29925.96</v>
+        <v>18865</v>
       </c>
       <c r="BI235">
         <v>38182.45</v>
@@ -59172,261 +59178,6 @@
         </is>
       </c>
       <c r="BK235" t="inlineStr">
-        <is>
-          <t>likely democratic__R</t>
-        </is>
-      </c>
-      <c r="BL235">
-        <v>-22</v>
-      </c>
-      <c r="BM235">
-        <v>29.7</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="inlineStr">
-        <is>
-          <t>not sponsoring</t>
-        </is>
-      </c>
-      <c r="B236" t="inlineStr">
-        <is>
-          <t>not sponsor</t>
-        </is>
-      </c>
-      <c r="C236" t="inlineStr">
-        <is>
-          <t>V000132</t>
-        </is>
-      </c>
-      <c r="D236" t="inlineStr">
-        <is>
-          <t>Filemon</t>
-        </is>
-      </c>
-      <c r="F236" t="inlineStr">
-        <is>
-          <t>Vela</t>
-        </is>
-      </c>
-      <c r="G236" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>TX</t>
-        </is>
-      </c>
-      <c r="I236" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="J236" t="inlineStr">
-        <is>
-          <t>4834</t>
-        </is>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>H2TX27190</t>
-        </is>
-      </c>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="M236" t="inlineStr">
-        <is>
-          <t>called</t>
-        </is>
-      </c>
-      <c r="N236">
-        <v>60</v>
-      </c>
-      <c r="O236">
-        <v>40</v>
-      </c>
-      <c r="P236" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="Q236">
-        <v>20</v>
-      </c>
-      <c r="R236" t="inlineStr">
-        <is>
-          <t>Texas</t>
-        </is>
-      </c>
-      <c r="S236" t="inlineStr">
-        <is>
-          <t>TX-34</t>
-        </is>
-      </c>
-      <c r="U236">
-        <v>718321</v>
-      </c>
-      <c r="V236">
-        <v>36417</v>
-      </c>
-      <c r="W236">
-        <v>32.2</v>
-      </c>
-      <c r="X236">
-        <v>19.958</v>
-      </c>
-      <c r="Y236">
-        <v>5.846</v>
-      </c>
-      <c r="Z236">
-        <v>85.881</v>
-      </c>
-      <c r="AA236">
-        <v>15.065</v>
-      </c>
-      <c r="AB236">
-        <v>55322</v>
-      </c>
-      <c r="AC236">
-        <v>37.7</v>
-      </c>
-      <c r="AD236">
-        <v>13.245</v>
-      </c>
-      <c r="AE236">
-        <v>8.007999999999999</v>
-      </c>
-      <c r="AF236">
-        <v>38.045</v>
-      </c>
-      <c r="AG236">
-        <v>30.315</v>
-      </c>
-      <c r="AH236" t="inlineStr">
-        <is>
-          <t>BELOW</t>
-        </is>
-      </c>
-      <c r="AI236" t="inlineStr">
-        <is>
-          <t>BELOW</t>
-        </is>
-      </c>
-      <c r="AJ236" t="inlineStr">
-        <is>
-          <t>ABOVE</t>
-        </is>
-      </c>
-      <c r="AK236" t="inlineStr">
-        <is>
-          <t>BELOW</t>
-        </is>
-      </c>
-      <c r="AL236" t="inlineStr">
-        <is>
-          <t>ABOVE</t>
-        </is>
-      </c>
-      <c r="AM236" t="inlineStr">
-        <is>
-          <t>BELOW</t>
-        </is>
-      </c>
-      <c r="AN236">
-        <v>62.7</v>
-      </c>
-      <c r="AO236">
-        <v>37.3</v>
-      </c>
-      <c r="AP236">
-        <v>59.1</v>
-      </c>
-      <c r="AQ236">
-        <v>37.6</v>
-      </c>
-      <c r="AR236">
-        <v>59.5</v>
-      </c>
-      <c r="AS236">
-        <v>38.6</v>
-      </c>
-      <c r="AT236">
-        <v>61.9</v>
-      </c>
-      <c r="AU236">
-        <v>36.2</v>
-      </c>
-      <c r="AV236">
-        <v>60.7</v>
-      </c>
-      <c r="AW236">
-        <v>38.3</v>
-      </c>
-      <c r="AX236" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AY236" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AZ236" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BA236" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BB236" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BC236" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="BD236">
-        <v>16.04</v>
-      </c>
-      <c r="BE236" t="inlineStr">
-        <is>
-          <t>BELOW</t>
-        </is>
-      </c>
-      <c r="BF236" t="inlineStr">
-        <is>
-          <t>40th percentile</t>
-        </is>
-      </c>
-      <c r="BG236" t="inlineStr">
-        <is>
-          <t>$18,865.00</t>
-        </is>
-      </c>
-      <c r="BH236">
-        <v>18865</v>
-      </c>
-      <c r="BI236">
-        <v>38182.45</v>
-      </c>
-      <c r="BJ236" t="inlineStr">
-        <is>
-          <t>BELOW</t>
-        </is>
-      </c>
-      <c r="BK236" t="inlineStr">
         <is>
           <t>NA__D</t>
         </is>

--- a/output/working_joined_hr1296.xlsx
+++ b/output/working_joined_hr1296.xlsx
@@ -26759,12 +26759,12 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>L000551</t>
+          <t>L000590</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Barbara</t>
+          <t>Susie</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -26779,22 +26779,22 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>NV</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>0613</t>
+          <t>3203</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>H8CA09060</t>
+          <t>H8NV03200</t>
         </is>
       </c>
       <c r="L107" t="inlineStr">
@@ -26808,10 +26808,10 @@
         </is>
       </c>
       <c r="N107">
-        <v>88.40000000000001</v>
+        <v>51.9</v>
       </c>
       <c r="O107">
-        <v>0</v>
+        <v>42.8</v>
       </c>
       <c r="P107" t="inlineStr">
         <is>
@@ -26819,38 +26819,43 @@
         </is>
       </c>
       <c r="Q107">
-        <v>88.40000000000001</v>
+        <v>9.1</v>
       </c>
       <c r="R107" t="inlineStr">
         <is>
-          <t>California</t>
+          <t>Nevada</t>
         </is>
       </c>
       <c r="S107" t="inlineStr">
         <is>
-          <t>CA-13</t>
+          <t>NV-03</t>
+        </is>
+      </c>
+      <c r="T107" t="inlineStr">
+        <is>
+          <t>lean democratic</t>
         </is>
       </c>
       <c r="U107">
-        <v>740683</v>
+        <v>739847</v>
       </c>
       <c r="V107">
-        <v>64948</v>
+        <v>64740</v>
       </c>
       <c r="W107">
-        <v>36.6</v>
+        <v>38.6</v>
       </c>
       <c r="X107">
-        <v>27.069</v>
+        <v>18.367</v>
       </c>
       <c r="Y107">
-        <v>4.351</v>
+        <v>9.875999999999999</v>
       </c>
       <c r="Z107">
-        <v>65.55500000000001</v>
+        <v>42.516</v>
       </c>
       <c r="AA107">
-        <v>46.129</v>
+        <v>31.415</v>
       </c>
       <c r="AB107">
         <v>55322</v>
@@ -26877,7 +26882,7 @@
       </c>
       <c r="AI107" t="inlineStr">
         <is>
-          <t>BELOW</t>
+          <t>ABOVE</t>
         </is>
       </c>
       <c r="AJ107" t="inlineStr">
@@ -26887,7 +26892,7 @@
       </c>
       <c r="AK107" t="inlineStr">
         <is>
-          <t>BELOW</t>
+          <t>ABOVE</t>
         </is>
       </c>
       <c r="AL107" t="inlineStr">
@@ -26901,34 +26906,34 @@
         </is>
       </c>
       <c r="AN107">
-        <v>90.8</v>
+        <v>47.2</v>
       </c>
       <c r="AO107">
-        <v>9.199999999999999</v>
+        <v>46</v>
       </c>
       <c r="AP107">
-        <v>86</v>
+        <v>46.5</v>
       </c>
       <c r="AQ107">
-        <v>6.7</v>
+        <v>47.5</v>
       </c>
       <c r="AR107">
-        <v>88.5</v>
+        <v>36.1</v>
       </c>
       <c r="AS107">
-        <v>11.5</v>
+        <v>60.8</v>
       </c>
       <c r="AT107">
-        <v>86.8</v>
+        <v>42.9</v>
       </c>
       <c r="AU107">
-        <v>0</v>
+        <v>50.4</v>
       </c>
       <c r="AV107">
-        <v>87.5</v>
+        <v>49.3</v>
       </c>
       <c r="AW107">
-        <v>9</v>
+        <v>48.5</v>
       </c>
       <c r="AX107" t="inlineStr">
         <is>
@@ -26937,17 +26942,17 @@
       </c>
       <c r="AY107" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>R</t>
         </is>
       </c>
       <c r="AZ107" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>R</t>
         </is>
       </c>
       <c r="BA107" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>R</t>
         </is>
       </c>
       <c r="BB107" t="inlineStr">
@@ -26961,7 +26966,7 @@
         </is>
       </c>
       <c r="BD107">
-        <v>0.01</v>
+        <v>1.67</v>
       </c>
       <c r="BE107" t="inlineStr">
         <is>
@@ -26970,28 +26975,28 @@
       </c>
       <c r="BF107" t="inlineStr">
         <is>
-          <t>below 20th percentile</t>
+          <t>20th percentile</t>
         </is>
       </c>
       <c r="BG107" t="inlineStr">
         <is>
-          <t>$53,717.31</t>
+          <t>$33,477.14</t>
         </is>
       </c>
       <c r="BH107">
-        <v>53717.31000000001</v>
+        <v>33477.14</v>
       </c>
       <c r="BI107">
         <v>38182.45</v>
       </c>
       <c r="BJ107" t="inlineStr">
         <is>
-          <t>ABOVE</t>
+          <t>BELOW</t>
         </is>
       </c>
       <c r="BK107" t="inlineStr">
         <is>
-          <t>NA__D</t>
+          <t>lean democratic__D</t>
         </is>
       </c>
     </row>
@@ -27008,12 +27013,12 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>L000590</t>
+          <t>L000551</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Susie</t>
+          <t>Barbara</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -27028,22 +27033,22 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>NV</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>3203</t>
+          <t>0613</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>H8NV03200</t>
+          <t>H8CA09060</t>
         </is>
       </c>
       <c r="L108" t="inlineStr">
@@ -27057,10 +27062,10 @@
         </is>
       </c>
       <c r="N108">
-        <v>51.9</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="O108">
-        <v>42.8</v>
+        <v>0</v>
       </c>
       <c r="P108" t="inlineStr">
         <is>
@@ -27068,43 +27073,38 @@
         </is>
       </c>
       <c r="Q108">
-        <v>9.1</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="R108" t="inlineStr">
         <is>
-          <t>Nevada</t>
+          <t>California</t>
         </is>
       </c>
       <c r="S108" t="inlineStr">
         <is>
-          <t>NV-03</t>
-        </is>
-      </c>
-      <c r="T108" t="inlineStr">
-        <is>
-          <t>lean democratic</t>
+          <t>CA-13</t>
         </is>
       </c>
       <c r="U108">
-        <v>739847</v>
+        <v>740683</v>
       </c>
       <c r="V108">
-        <v>64740</v>
+        <v>64948</v>
       </c>
       <c r="W108">
-        <v>38.6</v>
+        <v>36.6</v>
       </c>
       <c r="X108">
-        <v>18.367</v>
+        <v>27.069</v>
       </c>
       <c r="Y108">
-        <v>9.875999999999999</v>
+        <v>4.351</v>
       </c>
       <c r="Z108">
-        <v>42.516</v>
+        <v>65.55500000000001</v>
       </c>
       <c r="AA108">
-        <v>31.415</v>
+        <v>46.129</v>
       </c>
       <c r="AB108">
         <v>55322</v>
@@ -27131,7 +27131,7 @@
       </c>
       <c r="AI108" t="inlineStr">
         <is>
-          <t>ABOVE</t>
+          <t>BELOW</t>
         </is>
       </c>
       <c r="AJ108" t="inlineStr">
@@ -27141,7 +27141,7 @@
       </c>
       <c r="AK108" t="inlineStr">
         <is>
-          <t>ABOVE</t>
+          <t>BELOW</t>
         </is>
       </c>
       <c r="AL108" t="inlineStr">
@@ -27155,34 +27155,34 @@
         </is>
       </c>
       <c r="AN108">
-        <v>47.2</v>
+        <v>90.8</v>
       </c>
       <c r="AO108">
-        <v>46</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AP108">
-        <v>46.5</v>
+        <v>86</v>
       </c>
       <c r="AQ108">
-        <v>47.5</v>
+        <v>6.7</v>
       </c>
       <c r="AR108">
-        <v>36.1</v>
+        <v>88.5</v>
       </c>
       <c r="AS108">
-        <v>60.8</v>
+        <v>11.5</v>
       </c>
       <c r="AT108">
-        <v>42.9</v>
+        <v>86.8</v>
       </c>
       <c r="AU108">
-        <v>50.4</v>
+        <v>0</v>
       </c>
       <c r="AV108">
-        <v>49.3</v>
+        <v>87.5</v>
       </c>
       <c r="AW108">
-        <v>48.5</v>
+        <v>9</v>
       </c>
       <c r="AX108" t="inlineStr">
         <is>
@@ -27191,17 +27191,17 @@
       </c>
       <c r="AY108" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>D</t>
         </is>
       </c>
       <c r="AZ108" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>D</t>
         </is>
       </c>
       <c r="BA108" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>D</t>
         </is>
       </c>
       <c r="BB108" t="inlineStr">
@@ -27215,7 +27215,7 @@
         </is>
       </c>
       <c r="BD108">
-        <v>1.67</v>
+        <v>0.01</v>
       </c>
       <c r="BE108" t="inlineStr">
         <is>
@@ -27224,28 +27224,28 @@
       </c>
       <c r="BF108" t="inlineStr">
         <is>
-          <t>20th percentile</t>
+          <t>below 20th percentile</t>
         </is>
       </c>
       <c r="BG108" t="inlineStr">
         <is>
-          <t>$33,477.14</t>
+          <t>$53,717.31</t>
         </is>
       </c>
       <c r="BH108">
-        <v>33477.14</v>
+        <v>53717.31000000001</v>
       </c>
       <c r="BI108">
         <v>38182.45</v>
       </c>
       <c r="BJ108" t="inlineStr">
         <is>
-          <t>BELOW</t>
+          <t>ABOVE</t>
         </is>
       </c>
       <c r="BK108" t="inlineStr">
         <is>
-          <t>lean democratic__D</t>
+          <t>NA__D</t>
         </is>
       </c>
     </row>

--- a/output/working_joined_hr1296.xlsx
+++ b/output/working_joined_hr1296.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BM235"/>
+  <dimension ref="A1:BN235"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -683,6 +683,11 @@
           <t>D_margin_1816compare</t>
         </is>
       </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>margin_flag</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -932,6 +937,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN2" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1181,6 +1191,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN3" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1441,6 +1456,11 @@
       <c r="BM4">
         <v>77.59999999999999</v>
       </c>
+      <c r="BN4" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1701,6 +1721,11 @@
       <c r="BM5">
         <v>15.8</v>
       </c>
+      <c r="BN5" t="inlineStr">
+        <is>
+          <t>5_points_or_less</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1941,6 +1966,11 @@
           <t>ABOVE</t>
         </is>
       </c>
+      <c r="BN6" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2190,6 +2220,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN7" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2439,6 +2474,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN8" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2688,6 +2728,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN9" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2937,6 +2982,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN10" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3186,6 +3236,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN11" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3435,6 +3490,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN12" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3684,6 +3744,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN13" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3879,6 +3944,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN14" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4128,6 +4198,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN15" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4377,6 +4452,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN16" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4631,6 +4711,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN17" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4880,6 +4965,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN18" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5129,6 +5219,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN19" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5378,6 +5473,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN20" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5578,6 +5678,11 @@
           <t>likely democratic__D</t>
         </is>
       </c>
+      <c r="BN21" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5827,6 +5932,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN22" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6087,6 +6197,11 @@
       <c r="BM23">
         <v>25.60000000000001</v>
       </c>
+      <c r="BN23" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6336,6 +6451,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN24" t="inlineStr">
+        <is>
+          <t>5_points_or_less</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6585,6 +6705,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN25" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6825,6 +6950,11 @@
           <t>ABOVE</t>
         </is>
       </c>
+      <c r="BN26" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7085,6 +7215,11 @@
       <c r="BM27">
         <v>17.60000000000001</v>
       </c>
+      <c r="BN27" t="inlineStr">
+        <is>
+          <t>5_points_or_less</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7334,6 +7469,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN28" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7588,6 +7728,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN29" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7842,6 +7987,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN30" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -8091,6 +8241,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN31" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8345,6 +8500,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN32" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8594,6 +8754,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN33" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -8848,6 +9013,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN34" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -9097,6 +9267,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN35" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9351,6 +9526,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN36" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -9600,6 +9780,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN37" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -9849,6 +10034,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN38" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -10103,6 +10293,11 @@
           <t>likely republican__R</t>
         </is>
       </c>
+      <c r="BN39" t="inlineStr">
+        <is>
+          <t>5_points_or_less</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -10357,6 +10552,11 @@
           <t>lean democratic__R</t>
         </is>
       </c>
+      <c r="BN40" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -10606,6 +10806,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN41" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -10866,6 +11071,11 @@
       <c r="BM42">
         <v>19.5</v>
       </c>
+      <c r="BN42" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -11120,6 +11330,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN43" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -11374,6 +11589,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN44" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -11628,6 +11848,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN45" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -11823,6 +12048,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN46" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -12072,6 +12302,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN47" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -12321,6 +12556,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN48" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -12575,6 +12815,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN49" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -12829,6 +13074,11 @@
           <t>tossup__R</t>
         </is>
       </c>
+      <c r="BN50" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -13078,6 +13328,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN51" t="inlineStr">
+        <is>
+          <t>5_points_or_less</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -13327,6 +13582,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN52" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -13576,6 +13836,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN53" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -13825,6 +14090,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN54" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -14074,6 +14344,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN55" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -14269,6 +14544,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN56" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -14523,6 +14803,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN57" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -14772,6 +15057,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN58" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -15026,6 +15316,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN59" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -15275,6 +15570,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN60" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -15470,6 +15770,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN61" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -15724,6 +16029,11 @@
           <t>lean democratic__R</t>
         </is>
       </c>
+      <c r="BN62" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -15973,6 +16283,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN63" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -16222,6 +16537,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN64" t="inlineStr">
+        <is>
+          <t>5_points_or_less</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -16476,6 +16796,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN65" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -16725,6 +17050,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN66" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -16980,6 +17310,11 @@
       <c r="BM67">
         <v>35.3</v>
       </c>
+      <c r="BN67" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -17229,6 +17564,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN68" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -17478,6 +17818,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN69" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -17727,6 +18072,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN70" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -17976,6 +18326,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN71" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -18225,6 +18580,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN72" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -18480,6 +18840,11 @@
       <c r="BM73">
         <v>27.9</v>
       </c>
+      <c r="BN73" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -18734,6 +19099,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN74" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -18983,6 +19353,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN75" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -19237,6 +19612,11 @@
           <t>tossup__R</t>
         </is>
       </c>
+      <c r="BN76" t="inlineStr">
+        <is>
+          <t>5_points_or_less</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -19497,6 +19877,11 @@
       <c r="BM77">
         <v>39.30000000000001</v>
       </c>
+      <c r="BN77" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -19746,6 +20131,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN78" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -19995,6 +20385,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN79" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -20244,6 +20639,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN80" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -20504,6 +20904,11 @@
       <c r="BM81">
         <v>15</v>
       </c>
+      <c r="BN81" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -20753,6 +21158,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN82" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -21007,6 +21417,11 @@
           <t>lean democratic__D</t>
         </is>
       </c>
+      <c r="BN83" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -21207,6 +21622,11 @@
           <t>likely democratic__R</t>
         </is>
       </c>
+      <c r="BN84" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -21461,6 +21881,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN85" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -21710,6 +22135,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN86" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -21959,6 +22389,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN87" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -22208,6 +22643,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN88" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -22457,6 +22897,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN89" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -22717,6 +23162,11 @@
       <c r="BM90">
         <v>24.59999999999999</v>
       </c>
+      <c r="BN90" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -22966,6 +23416,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN91" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -23215,6 +23670,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN92" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -23464,6 +23924,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN93" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -23713,6 +24178,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN94" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -23973,6 +24443,11 @@
       <c r="BM95">
         <v>59.7</v>
       </c>
+      <c r="BN95" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -24222,6 +24697,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN96" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -24471,6 +24951,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN97" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -24720,6 +25205,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN98" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -24980,6 +25470,11 @@
       <c r="BM99">
         <v>23.4</v>
       </c>
+      <c r="BN99" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -25235,6 +25730,11 @@
       <c r="BM100">
         <v>15.40000000000001</v>
       </c>
+      <c r="BN100" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -25489,6 +25989,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN101" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -25738,6 +26243,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN102" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -25993,6 +26503,11 @@
       <c r="BM103">
         <v>43.3</v>
       </c>
+      <c r="BN103" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -26247,6 +26762,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN104" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -26496,6 +27016,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN105" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -26745,6 +27270,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN106" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -26759,12 +27289,12 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>L000590</t>
+          <t>L000551</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Susie</t>
+          <t>Barbara</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -26779,22 +27309,22 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>NV</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>3203</t>
+          <t>0613</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>H8NV03200</t>
+          <t>H8CA09060</t>
         </is>
       </c>
       <c r="L107" t="inlineStr">
@@ -26808,10 +27338,10 @@
         </is>
       </c>
       <c r="N107">
-        <v>51.9</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="O107">
-        <v>42.8</v>
+        <v>0</v>
       </c>
       <c r="P107" t="inlineStr">
         <is>
@@ -26819,43 +27349,38 @@
         </is>
       </c>
       <c r="Q107">
-        <v>9.1</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="R107" t="inlineStr">
         <is>
-          <t>Nevada</t>
+          <t>California</t>
         </is>
       </c>
       <c r="S107" t="inlineStr">
         <is>
-          <t>NV-03</t>
-        </is>
-      </c>
-      <c r="T107" t="inlineStr">
-        <is>
-          <t>lean democratic</t>
+          <t>CA-13</t>
         </is>
       </c>
       <c r="U107">
-        <v>739847</v>
+        <v>740683</v>
       </c>
       <c r="V107">
-        <v>64740</v>
+        <v>64948</v>
       </c>
       <c r="W107">
-        <v>38.6</v>
+        <v>36.6</v>
       </c>
       <c r="X107">
-        <v>18.367</v>
+        <v>27.069</v>
       </c>
       <c r="Y107">
-        <v>9.875999999999999</v>
+        <v>4.351</v>
       </c>
       <c r="Z107">
-        <v>42.516</v>
+        <v>65.55500000000001</v>
       </c>
       <c r="AA107">
-        <v>31.415</v>
+        <v>46.129</v>
       </c>
       <c r="AB107">
         <v>55322</v>
@@ -26882,7 +27407,7 @@
       </c>
       <c r="AI107" t="inlineStr">
         <is>
-          <t>ABOVE</t>
+          <t>BELOW</t>
         </is>
       </c>
       <c r="AJ107" t="inlineStr">
@@ -26892,7 +27417,7 @@
       </c>
       <c r="AK107" t="inlineStr">
         <is>
-          <t>ABOVE</t>
+          <t>BELOW</t>
         </is>
       </c>
       <c r="AL107" t="inlineStr">
@@ -26906,34 +27431,34 @@
         </is>
       </c>
       <c r="AN107">
-        <v>47.2</v>
+        <v>90.8</v>
       </c>
       <c r="AO107">
-        <v>46</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AP107">
-        <v>46.5</v>
+        <v>86</v>
       </c>
       <c r="AQ107">
-        <v>47.5</v>
+        <v>6.7</v>
       </c>
       <c r="AR107">
-        <v>36.1</v>
+        <v>88.5</v>
       </c>
       <c r="AS107">
-        <v>60.8</v>
+        <v>11.5</v>
       </c>
       <c r="AT107">
-        <v>42.9</v>
+        <v>86.8</v>
       </c>
       <c r="AU107">
-        <v>50.4</v>
+        <v>0</v>
       </c>
       <c r="AV107">
-        <v>49.3</v>
+        <v>87.5</v>
       </c>
       <c r="AW107">
-        <v>48.5</v>
+        <v>9</v>
       </c>
       <c r="AX107" t="inlineStr">
         <is>
@@ -26942,17 +27467,17 @@
       </c>
       <c r="AY107" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>D</t>
         </is>
       </c>
       <c r="AZ107" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>D</t>
         </is>
       </c>
       <c r="BA107" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>D</t>
         </is>
       </c>
       <c r="BB107" t="inlineStr">
@@ -26966,7 +27491,7 @@
         </is>
       </c>
       <c r="BD107">
-        <v>1.67</v>
+        <v>0.01</v>
       </c>
       <c r="BE107" t="inlineStr">
         <is>
@@ -26975,28 +27500,33 @@
       </c>
       <c r="BF107" t="inlineStr">
         <is>
-          <t>20th percentile</t>
+          <t>below 20th percentile</t>
         </is>
       </c>
       <c r="BG107" t="inlineStr">
         <is>
-          <t>$33,477.14</t>
+          <t>$53,717.31</t>
         </is>
       </c>
       <c r="BH107">
-        <v>33477.14</v>
+        <v>53717.31000000001</v>
       </c>
       <c r="BI107">
         <v>38182.45</v>
       </c>
       <c r="BJ107" t="inlineStr">
         <is>
-          <t>BELOW</t>
+          <t>ABOVE</t>
         </is>
       </c>
       <c r="BK107" t="inlineStr">
         <is>
-          <t>lean democratic__D</t>
+          <t>NA__D</t>
+        </is>
+      </c>
+      <c r="BN107" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
         </is>
       </c>
     </row>
@@ -27013,12 +27543,12 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>L000551</t>
+          <t>L000590</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Barbara</t>
+          <t>Susie</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -27033,22 +27563,22 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>NV</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>0613</t>
+          <t>3203</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>H8CA09060</t>
+          <t>H8NV03200</t>
         </is>
       </c>
       <c r="L108" t="inlineStr">
@@ -27062,10 +27592,10 @@
         </is>
       </c>
       <c r="N108">
-        <v>88.40000000000001</v>
+        <v>51.9</v>
       </c>
       <c r="O108">
-        <v>0</v>
+        <v>42.8</v>
       </c>
       <c r="P108" t="inlineStr">
         <is>
@@ -27073,38 +27603,43 @@
         </is>
       </c>
       <c r="Q108">
-        <v>88.40000000000001</v>
+        <v>9.1</v>
       </c>
       <c r="R108" t="inlineStr">
         <is>
-          <t>California</t>
+          <t>Nevada</t>
         </is>
       </c>
       <c r="S108" t="inlineStr">
         <is>
-          <t>CA-13</t>
+          <t>NV-03</t>
+        </is>
+      </c>
+      <c r="T108" t="inlineStr">
+        <is>
+          <t>lean democratic</t>
         </is>
       </c>
       <c r="U108">
-        <v>740683</v>
+        <v>739847</v>
       </c>
       <c r="V108">
-        <v>64948</v>
+        <v>64740</v>
       </c>
       <c r="W108">
-        <v>36.6</v>
+        <v>38.6</v>
       </c>
       <c r="X108">
-        <v>27.069</v>
+        <v>18.367</v>
       </c>
       <c r="Y108">
-        <v>4.351</v>
+        <v>9.875999999999999</v>
       </c>
       <c r="Z108">
-        <v>65.55500000000001</v>
+        <v>42.516</v>
       </c>
       <c r="AA108">
-        <v>46.129</v>
+        <v>31.415</v>
       </c>
       <c r="AB108">
         <v>55322</v>
@@ -27131,7 +27666,7 @@
       </c>
       <c r="AI108" t="inlineStr">
         <is>
-          <t>BELOW</t>
+          <t>ABOVE</t>
         </is>
       </c>
       <c r="AJ108" t="inlineStr">
@@ -27141,7 +27676,7 @@
       </c>
       <c r="AK108" t="inlineStr">
         <is>
-          <t>BELOW</t>
+          <t>ABOVE</t>
         </is>
       </c>
       <c r="AL108" t="inlineStr">
@@ -27155,34 +27690,34 @@
         </is>
       </c>
       <c r="AN108">
-        <v>90.8</v>
+        <v>47.2</v>
       </c>
       <c r="AO108">
-        <v>9.199999999999999</v>
+        <v>46</v>
       </c>
       <c r="AP108">
-        <v>86</v>
+        <v>46.5</v>
       </c>
       <c r="AQ108">
-        <v>6.7</v>
+        <v>47.5</v>
       </c>
       <c r="AR108">
-        <v>88.5</v>
+        <v>36.1</v>
       </c>
       <c r="AS108">
-        <v>11.5</v>
+        <v>60.8</v>
       </c>
       <c r="AT108">
-        <v>86.8</v>
+        <v>42.9</v>
       </c>
       <c r="AU108">
-        <v>0</v>
+        <v>50.4</v>
       </c>
       <c r="AV108">
-        <v>87.5</v>
+        <v>49.3</v>
       </c>
       <c r="AW108">
-        <v>9</v>
+        <v>48.5</v>
       </c>
       <c r="AX108" t="inlineStr">
         <is>
@@ -27191,17 +27726,17 @@
       </c>
       <c r="AY108" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>R</t>
         </is>
       </c>
       <c r="AZ108" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>R</t>
         </is>
       </c>
       <c r="BA108" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>R</t>
         </is>
       </c>
       <c r="BB108" t="inlineStr">
@@ -27215,7 +27750,7 @@
         </is>
       </c>
       <c r="BD108">
-        <v>0.01</v>
+        <v>1.67</v>
       </c>
       <c r="BE108" t="inlineStr">
         <is>
@@ -27224,28 +27759,33 @@
       </c>
       <c r="BF108" t="inlineStr">
         <is>
-          <t>below 20th percentile</t>
+          <t>20th percentile</t>
         </is>
       </c>
       <c r="BG108" t="inlineStr">
         <is>
-          <t>$53,717.31</t>
+          <t>$33,477.14</t>
         </is>
       </c>
       <c r="BH108">
-        <v>53717.31000000001</v>
+        <v>33477.14</v>
       </c>
       <c r="BI108">
         <v>38182.45</v>
       </c>
       <c r="BJ108" t="inlineStr">
         <is>
-          <t>ABOVE</t>
+          <t>BELOW</t>
         </is>
       </c>
       <c r="BK108" t="inlineStr">
         <is>
-          <t>NA__D</t>
+          <t>lean democratic__D</t>
+        </is>
+      </c>
+      <c r="BN108" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
         </is>
       </c>
     </row>
@@ -27497,6 +28037,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN109" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -27751,6 +28296,11 @@
           <t>lean democratic__R</t>
         </is>
       </c>
+      <c r="BN110" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -28006,6 +28556,11 @@
       <c r="BM111">
         <v>31.19999999999999</v>
       </c>
+      <c r="BN111" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -28255,6 +28810,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN112" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -28504,6 +29064,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN113" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -28753,6 +29318,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN114" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -29002,6 +29572,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN115" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -29251,6 +29826,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN116" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -29505,6 +30085,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN117" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -29759,6 +30344,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN118" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -30019,6 +30609,11 @@
       <c r="BM119">
         <v>25</v>
       </c>
+      <c r="BN119" t="inlineStr">
+        <is>
+          <t>5_points_or_less</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -30279,6 +30874,11 @@
       <c r="BM120">
         <v>55.09999999999999</v>
       </c>
+      <c r="BN120" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -30539,6 +31139,11 @@
       <c r="BM121">
         <v>16</v>
       </c>
+      <c r="BN121" t="inlineStr">
+        <is>
+          <t>5_points_or_less</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -30793,6 +31398,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN122" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -31047,6 +31657,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN123" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -31287,6 +31902,11 @@
           <t>ABOVE</t>
         </is>
       </c>
+      <c r="BN124" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -31547,6 +32167,11 @@
       <c r="BM125">
         <v>24.40000000000001</v>
       </c>
+      <c r="BN125" t="inlineStr">
+        <is>
+          <t>5_points_or_less</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -31796,6 +32421,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN126" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -32050,6 +32680,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN127" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -32299,6 +32934,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN128" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -32548,6 +33188,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN129" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -32808,6 +33453,11 @@
       <c r="BM130">
         <v>27.59999999999999</v>
       </c>
+      <c r="BN130" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -33063,6 +33713,11 @@
       <c r="BM131">
         <v>45.50000000000001</v>
       </c>
+      <c r="BN131" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -33312,6 +33967,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN132" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -33561,6 +34221,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN133" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -33810,6 +34475,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN134" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -34064,6 +34734,11 @@
           <t>tossup__R</t>
         </is>
       </c>
+      <c r="BN135" t="inlineStr">
+        <is>
+          <t>5_points_or_less</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -34313,6 +34988,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN136" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -34562,6 +35242,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN137" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -34816,6 +35501,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN138" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -35076,6 +35766,11 @@
       <c r="BM139">
         <v>26.7</v>
       </c>
+      <c r="BN139" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -35325,6 +36020,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN140" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -35579,6 +36279,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN141" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -35828,6 +36533,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN142" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -36077,6 +36787,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN143" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -36326,6 +37041,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN144" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -36581,6 +37301,11 @@
       <c r="BM145">
         <v>39.80000000000001</v>
       </c>
+      <c r="BN145" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -36835,6 +37560,11 @@
           <t>lean democratic__D</t>
         </is>
       </c>
+      <c r="BN146" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -37084,6 +37814,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN147" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -37338,6 +38073,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN148" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -37587,6 +38327,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN149" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -37836,6 +38581,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN150" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -38096,6 +38846,11 @@
       <c r="BM151">
         <v>25.1</v>
       </c>
+      <c r="BN151" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -38345,6 +39100,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN152" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -38600,6 +39360,11 @@
       <c r="BM153">
         <v>62.5</v>
       </c>
+      <c r="BN153" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -38860,6 +39625,11 @@
       <c r="BM154">
         <v>21.4</v>
       </c>
+      <c r="BN154" t="inlineStr">
+        <is>
+          <t>5_points_or_less</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -39109,6 +39879,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN155" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -39363,6 +40138,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN156" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -39612,6 +40392,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN157" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -39861,6 +40646,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN158" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -40110,6 +40900,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN159" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -40359,6 +41154,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN160" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -40619,6 +41419,11 @@
       <c r="BM161">
         <v>31.2</v>
       </c>
+      <c r="BN161" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -40879,6 +41684,11 @@
       <c r="BM162">
         <v>23.79999999999999</v>
       </c>
+      <c r="BN162" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -41128,6 +41938,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN163" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -41377,6 +42192,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN164" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -41626,6 +42446,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN165" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -41880,6 +42705,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN166" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -42129,6 +42959,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN167" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -42383,6 +43218,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN168" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -42632,6 +43472,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN169" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -42837,6 +43682,11 @@
           <t>likely democratic__R</t>
         </is>
       </c>
+      <c r="BN170" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -43086,6 +43936,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN171" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -43340,6 +44195,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN172" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -43595,6 +44455,11 @@
       <c r="BM173">
         <v>26</v>
       </c>
+      <c r="BN173" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -43855,6 +44720,11 @@
       <c r="BM174">
         <v>25.20000000000001</v>
       </c>
+      <c r="BN174" t="inlineStr">
+        <is>
+          <t>5_points_or_less</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -44115,6 +44985,11 @@
       <c r="BM175">
         <v>66.40000000000001</v>
       </c>
+      <c r="BN175" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -44364,6 +45239,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN176" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -44618,6 +45498,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN177" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -44878,6 +45763,11 @@
       <c r="BM178">
         <v>15.8</v>
       </c>
+      <c r="BN178" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -45127,6 +46017,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN179" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -45387,6 +46282,11 @@
       <c r="BM180">
         <v>33.8</v>
       </c>
+      <c r="BN180" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -45636,6 +46536,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN181" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -45876,6 +46781,11 @@
           <t>ABOVE</t>
         </is>
       </c>
+      <c r="BN182" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -46125,6 +47035,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN183" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -46385,6 +47300,11 @@
       <c r="BM184">
         <v>17.3</v>
       </c>
+      <c r="BN184" t="inlineStr">
+        <is>
+          <t>5_points_or_less</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -46634,6 +47554,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN185" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -46888,6 +47813,11 @@
           <t>likely democratic__D</t>
         </is>
       </c>
+      <c r="BN186" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -47148,6 +48078,11 @@
       <c r="BM187">
         <v>19.3</v>
       </c>
+      <c r="BN187" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -47397,6 +48332,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN188" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -47646,6 +48586,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN189" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -47895,6 +48840,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN190" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -48150,6 +49100,11 @@
       <c r="BM191">
         <v>33.8</v>
       </c>
+      <c r="BN191" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -48399,6 +49354,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN192" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -48654,6 +49614,11 @@
       <c r="BM193">
         <v>23.2</v>
       </c>
+      <c r="BN193" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -48903,6 +49868,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN194" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -49152,6 +50122,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN195" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -49401,6 +50376,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN196" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -49650,6 +50630,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN197" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -49899,6 +50884,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN198" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -50148,6 +51138,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN199" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -50402,6 +51397,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN200" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -50656,6 +51656,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN201" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -50905,6 +51910,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN202" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -51154,6 +52164,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN203" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -51403,6 +52418,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN204" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -51652,6 +52672,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN205" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -51912,6 +52937,11 @@
       <c r="BM206">
         <v>18.2</v>
       </c>
+      <c r="BN206" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -52112,6 +53142,11 @@
           <t>lean democratic__R</t>
         </is>
       </c>
+      <c r="BN207" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -52361,6 +53396,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN208" t="inlineStr">
+        <is>
+          <t>5_points_or_less</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -52610,6 +53650,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN209" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -52864,6 +53909,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN210" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -53118,6 +54168,11 @@
           <t>tossup__R</t>
         </is>
       </c>
+      <c r="BN211" t="inlineStr">
+        <is>
+          <t>5_points_or_less</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -53367,6 +54422,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN212" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -53616,6 +54676,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN213" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -53871,6 +54936,11 @@
       <c r="BM214">
         <v>49.5</v>
       </c>
+      <c r="BN214" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -54131,6 +55201,11 @@
       <c r="BM215">
         <v>23.2</v>
       </c>
+      <c r="BN215" t="inlineStr">
+        <is>
+          <t>5_points_or_less</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -54391,6 +55466,11 @@
       <c r="BM216">
         <v>20.4</v>
       </c>
+      <c r="BN216" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -54645,6 +55725,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN217" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -54905,6 +55990,11 @@
       <c r="BM218">
         <v>17.40000000000001</v>
       </c>
+      <c r="BN218" t="inlineStr">
+        <is>
+          <t>5_points_or_less</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -55159,6 +56249,11 @@
           <t>tossup__R</t>
         </is>
       </c>
+      <c r="BN219" t="inlineStr">
+        <is>
+          <t>5_points_or_less</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -55408,6 +56503,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN220" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -55663,6 +56763,11 @@
       <c r="BM221">
         <v>21.7</v>
       </c>
+      <c r="BN221" t="inlineStr">
+        <is>
+          <t>5_points_or_less</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -55923,6 +57028,11 @@
       <c r="BM222">
         <v>21.7</v>
       </c>
+      <c r="BN222" t="inlineStr">
+        <is>
+          <t>5_points_or_less</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -56178,6 +57288,11 @@
       <c r="BM223">
         <v>23.4</v>
       </c>
+      <c r="BN223" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -56378,6 +57493,11 @@
           <t>lean democratic__R</t>
         </is>
       </c>
+      <c r="BN224" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -56632,6 +57752,11 @@
           <t>tossup__R</t>
         </is>
       </c>
+      <c r="BN225" t="inlineStr">
+        <is>
+          <t>5_points_or_less</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -56886,6 +58011,11 @@
           <t>lean democratic__D</t>
         </is>
       </c>
+      <c r="BN226" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -57140,6 +58270,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN227" t="inlineStr">
+        <is>
+          <t>5_points_or_less</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -57389,6 +58524,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN228" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -57638,6 +58778,11 @@
           <t>NA__D</t>
         </is>
       </c>
+      <c r="BN229" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -57898,6 +59043,11 @@
       <c r="BM230">
         <v>20.6</v>
       </c>
+      <c r="BN230" t="inlineStr">
+        <is>
+          <t>5_points_or_less</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -58153,6 +59303,11 @@
       <c r="BM231">
         <v>25.1</v>
       </c>
+      <c r="BN231" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -58413,6 +59568,11 @@
       <c r="BM232">
         <v>27.3</v>
       </c>
+      <c r="BN232" t="inlineStr">
+        <is>
+          <t>5_points_or_less</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -58673,6 +59833,11 @@
       <c r="BM233">
         <v>23.59999999999999</v>
       </c>
+      <c r="BN233" t="inlineStr">
+        <is>
+          <t>5_points_or_less</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -58933,6 +60098,11 @@
       <c r="BM234">
         <v>29.7</v>
       </c>
+      <c r="BN234" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -59180,6 +60350,11 @@
       <c r="BK235" t="inlineStr">
         <is>
           <t>NA__D</t>
+        </is>
+      </c>
+      <c r="BN235" t="inlineStr">
+        <is>
+          <t>more_than_5_points</t>
         </is>
       </c>
     </row>

--- a/output/working_joined_hr1296.xlsx
+++ b/output/working_joined_hr1296.xlsx
@@ -1968,7 +1968,7 @@
       </c>
       <c r="BN6" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>more_than_5_points</t>
         </is>
       </c>
     </row>
@@ -6952,7 +6952,7 @@
       </c>
       <c r="BN26" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>more_than_5_points</t>
         </is>
       </c>
     </row>
@@ -27289,12 +27289,12 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>L000551</t>
+          <t>L000590</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Barbara</t>
+          <t>Susie</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -27309,22 +27309,22 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>NV</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>0613</t>
+          <t>3203</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>H8CA09060</t>
+          <t>H8NV03200</t>
         </is>
       </c>
       <c r="L107" t="inlineStr">
@@ -27338,10 +27338,10 @@
         </is>
       </c>
       <c r="N107">
-        <v>88.40000000000001</v>
+        <v>51.9</v>
       </c>
       <c r="O107">
-        <v>0</v>
+        <v>42.8</v>
       </c>
       <c r="P107" t="inlineStr">
         <is>
@@ -27349,38 +27349,43 @@
         </is>
       </c>
       <c r="Q107">
-        <v>88.40000000000001</v>
+        <v>9.1</v>
       </c>
       <c r="R107" t="inlineStr">
         <is>
-          <t>California</t>
+          <t>Nevada</t>
         </is>
       </c>
       <c r="S107" t="inlineStr">
         <is>
-          <t>CA-13</t>
+          <t>NV-03</t>
+        </is>
+      </c>
+      <c r="T107" t="inlineStr">
+        <is>
+          <t>lean democratic</t>
         </is>
       </c>
       <c r="U107">
-        <v>740683</v>
+        <v>739847</v>
       </c>
       <c r="V107">
-        <v>64948</v>
+        <v>64740</v>
       </c>
       <c r="W107">
-        <v>36.6</v>
+        <v>38.6</v>
       </c>
       <c r="X107">
-        <v>27.069</v>
+        <v>18.367</v>
       </c>
       <c r="Y107">
-        <v>4.351</v>
+        <v>9.875999999999999</v>
       </c>
       <c r="Z107">
-        <v>65.55500000000001</v>
+        <v>42.516</v>
       </c>
       <c r="AA107">
-        <v>46.129</v>
+        <v>31.415</v>
       </c>
       <c r="AB107">
         <v>55322</v>
@@ -27407,7 +27412,7 @@
       </c>
       <c r="AI107" t="inlineStr">
         <is>
-          <t>BELOW</t>
+          <t>ABOVE</t>
         </is>
       </c>
       <c r="AJ107" t="inlineStr">
@@ -27417,7 +27422,7 @@
       </c>
       <c r="AK107" t="inlineStr">
         <is>
-          <t>BELOW</t>
+          <t>ABOVE</t>
         </is>
       </c>
       <c r="AL107" t="inlineStr">
@@ -27431,34 +27436,34 @@
         </is>
       </c>
       <c r="AN107">
-        <v>90.8</v>
+        <v>47.2</v>
       </c>
       <c r="AO107">
-        <v>9.199999999999999</v>
+        <v>46</v>
       </c>
       <c r="AP107">
-        <v>86</v>
+        <v>46.5</v>
       </c>
       <c r="AQ107">
-        <v>6.7</v>
+        <v>47.5</v>
       </c>
       <c r="AR107">
-        <v>88.5</v>
+        <v>36.1</v>
       </c>
       <c r="AS107">
-        <v>11.5</v>
+        <v>60.8</v>
       </c>
       <c r="AT107">
-        <v>86.8</v>
+        <v>42.9</v>
       </c>
       <c r="AU107">
-        <v>0</v>
+        <v>50.4</v>
       </c>
       <c r="AV107">
-        <v>87.5</v>
+        <v>49.3</v>
       </c>
       <c r="AW107">
-        <v>9</v>
+        <v>48.5</v>
       </c>
       <c r="AX107" t="inlineStr">
         <is>
@@ -27467,17 +27472,17 @@
       </c>
       <c r="AY107" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>R</t>
         </is>
       </c>
       <c r="AZ107" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>R</t>
         </is>
       </c>
       <c r="BA107" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>R</t>
         </is>
       </c>
       <c r="BB107" t="inlineStr">
@@ -27491,7 +27496,7 @@
         </is>
       </c>
       <c r="BD107">
-        <v>0.01</v>
+        <v>1.67</v>
       </c>
       <c r="BE107" t="inlineStr">
         <is>
@@ -27500,28 +27505,28 @@
       </c>
       <c r="BF107" t="inlineStr">
         <is>
-          <t>below 20th percentile</t>
+          <t>20th percentile</t>
         </is>
       </c>
       <c r="BG107" t="inlineStr">
         <is>
-          <t>$53,717.31</t>
+          <t>$33,477.14</t>
         </is>
       </c>
       <c r="BH107">
-        <v>53717.31000000001</v>
+        <v>33477.14</v>
       </c>
       <c r="BI107">
         <v>38182.45</v>
       </c>
       <c r="BJ107" t="inlineStr">
         <is>
-          <t>ABOVE</t>
+          <t>BELOW</t>
         </is>
       </c>
       <c r="BK107" t="inlineStr">
         <is>
-          <t>NA__D</t>
+          <t>lean democratic__D</t>
         </is>
       </c>
       <c r="BN107" t="inlineStr">
@@ -27543,12 +27548,12 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>L000590</t>
+          <t>L000551</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Susie</t>
+          <t>Barbara</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -27563,22 +27568,22 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>NV</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>3203</t>
+          <t>0613</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>H8NV03200</t>
+          <t>H8CA09060</t>
         </is>
       </c>
       <c r="L108" t="inlineStr">
@@ -27592,10 +27597,10 @@
         </is>
       </c>
       <c r="N108">
-        <v>51.9</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="O108">
-        <v>42.8</v>
+        <v>0</v>
       </c>
       <c r="P108" t="inlineStr">
         <is>
@@ -27603,43 +27608,38 @@
         </is>
       </c>
       <c r="Q108">
-        <v>9.1</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="R108" t="inlineStr">
         <is>
-          <t>Nevada</t>
+          <t>California</t>
         </is>
       </c>
       <c r="S108" t="inlineStr">
         <is>
-          <t>NV-03</t>
-        </is>
-      </c>
-      <c r="T108" t="inlineStr">
-        <is>
-          <t>lean democratic</t>
+          <t>CA-13</t>
         </is>
       </c>
       <c r="U108">
-        <v>739847</v>
+        <v>740683</v>
       </c>
       <c r="V108">
-        <v>64740</v>
+        <v>64948</v>
       </c>
       <c r="W108">
-        <v>38.6</v>
+        <v>36.6</v>
       </c>
       <c r="X108">
-        <v>18.367</v>
+        <v>27.069</v>
       </c>
       <c r="Y108">
-        <v>9.875999999999999</v>
+        <v>4.351</v>
       </c>
       <c r="Z108">
-        <v>42.516</v>
+        <v>65.55500000000001</v>
       </c>
       <c r="AA108">
-        <v>31.415</v>
+        <v>46.129</v>
       </c>
       <c r="AB108">
         <v>55322</v>
@@ -27666,7 +27666,7 @@
       </c>
       <c r="AI108" t="inlineStr">
         <is>
-          <t>ABOVE</t>
+          <t>BELOW</t>
         </is>
       </c>
       <c r="AJ108" t="inlineStr">
@@ -27676,7 +27676,7 @@
       </c>
       <c r="AK108" t="inlineStr">
         <is>
-          <t>ABOVE</t>
+          <t>BELOW</t>
         </is>
       </c>
       <c r="AL108" t="inlineStr">
@@ -27690,34 +27690,34 @@
         </is>
       </c>
       <c r="AN108">
-        <v>47.2</v>
+        <v>90.8</v>
       </c>
       <c r="AO108">
-        <v>46</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AP108">
-        <v>46.5</v>
+        <v>86</v>
       </c>
       <c r="AQ108">
-        <v>47.5</v>
+        <v>6.7</v>
       </c>
       <c r="AR108">
-        <v>36.1</v>
+        <v>88.5</v>
       </c>
       <c r="AS108">
-        <v>60.8</v>
+        <v>11.5</v>
       </c>
       <c r="AT108">
-        <v>42.9</v>
+        <v>86.8</v>
       </c>
       <c r="AU108">
-        <v>50.4</v>
+        <v>0</v>
       </c>
       <c r="AV108">
-        <v>49.3</v>
+        <v>87.5</v>
       </c>
       <c r="AW108">
-        <v>48.5</v>
+        <v>9</v>
       </c>
       <c r="AX108" t="inlineStr">
         <is>
@@ -27726,17 +27726,17 @@
       </c>
       <c r="AY108" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>D</t>
         </is>
       </c>
       <c r="AZ108" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>D</t>
         </is>
       </c>
       <c r="BA108" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>D</t>
         </is>
       </c>
       <c r="BB108" t="inlineStr">
@@ -27750,7 +27750,7 @@
         </is>
       </c>
       <c r="BD108">
-        <v>1.67</v>
+        <v>0.01</v>
       </c>
       <c r="BE108" t="inlineStr">
         <is>
@@ -27759,28 +27759,28 @@
       </c>
       <c r="BF108" t="inlineStr">
         <is>
-          <t>20th percentile</t>
+          <t>below 20th percentile</t>
         </is>
       </c>
       <c r="BG108" t="inlineStr">
         <is>
-          <t>$33,477.14</t>
+          <t>$53,717.31</t>
         </is>
       </c>
       <c r="BH108">
-        <v>33477.14</v>
+        <v>53717.31000000001</v>
       </c>
       <c r="BI108">
         <v>38182.45</v>
       </c>
       <c r="BJ108" t="inlineStr">
         <is>
-          <t>BELOW</t>
+          <t>ABOVE</t>
         </is>
       </c>
       <c r="BK108" t="inlineStr">
         <is>
-          <t>lean democratic__D</t>
+          <t>NA__D</t>
         </is>
       </c>
       <c r="BN108" t="inlineStr">
@@ -31904,7 +31904,7 @@
       </c>
       <c r="BN124" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>more_than_5_points</t>
         </is>
       </c>
     </row>
@@ -46783,7 +46783,7 @@
       </c>
       <c r="BN182" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>more_than_5_points</t>
         </is>
       </c>
     </row>

--- a/output/working_joined_hr1296.xlsx
+++ b/output/working_joined_hr1296.xlsx
@@ -27289,12 +27289,12 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>L000590</t>
+          <t>L000551</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Susie</t>
+          <t>Barbara</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -27309,22 +27309,22 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>NV</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>3203</t>
+          <t>0613</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>H8NV03200</t>
+          <t>H8CA09060</t>
         </is>
       </c>
       <c r="L107" t="inlineStr">
@@ -27338,10 +27338,10 @@
         </is>
       </c>
       <c r="N107">
-        <v>51.9</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="O107">
-        <v>42.8</v>
+        <v>0</v>
       </c>
       <c r="P107" t="inlineStr">
         <is>
@@ -27349,43 +27349,38 @@
         </is>
       </c>
       <c r="Q107">
-        <v>9.1</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="R107" t="inlineStr">
         <is>
-          <t>Nevada</t>
+          <t>California</t>
         </is>
       </c>
       <c r="S107" t="inlineStr">
         <is>
-          <t>NV-03</t>
-        </is>
-      </c>
-      <c r="T107" t="inlineStr">
-        <is>
-          <t>lean democratic</t>
+          <t>CA-13</t>
         </is>
       </c>
       <c r="U107">
-        <v>739847</v>
+        <v>740683</v>
       </c>
       <c r="V107">
-        <v>64740</v>
+        <v>64948</v>
       </c>
       <c r="W107">
-        <v>38.6</v>
+        <v>36.6</v>
       </c>
       <c r="X107">
-        <v>18.367</v>
+        <v>27.069</v>
       </c>
       <c r="Y107">
-        <v>9.875999999999999</v>
+        <v>4.351</v>
       </c>
       <c r="Z107">
-        <v>42.516</v>
+        <v>65.55500000000001</v>
       </c>
       <c r="AA107">
-        <v>31.415</v>
+        <v>46.129</v>
       </c>
       <c r="AB107">
         <v>55322</v>
@@ -27412,7 +27407,7 @@
       </c>
       <c r="AI107" t="inlineStr">
         <is>
-          <t>ABOVE</t>
+          <t>BELOW</t>
         </is>
       </c>
       <c r="AJ107" t="inlineStr">
@@ -27422,7 +27417,7 @@
       </c>
       <c r="AK107" t="inlineStr">
         <is>
-          <t>ABOVE</t>
+          <t>BELOW</t>
         </is>
       </c>
       <c r="AL107" t="inlineStr">
@@ -27436,34 +27431,34 @@
         </is>
       </c>
       <c r="AN107">
-        <v>47.2</v>
+        <v>90.8</v>
       </c>
       <c r="AO107">
-        <v>46</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AP107">
-        <v>46.5</v>
+        <v>86</v>
       </c>
       <c r="AQ107">
-        <v>47.5</v>
+        <v>6.7</v>
       </c>
       <c r="AR107">
-        <v>36.1</v>
+        <v>88.5</v>
       </c>
       <c r="AS107">
-        <v>60.8</v>
+        <v>11.5</v>
       </c>
       <c r="AT107">
-        <v>42.9</v>
+        <v>86.8</v>
       </c>
       <c r="AU107">
-        <v>50.4</v>
+        <v>0</v>
       </c>
       <c r="AV107">
-        <v>49.3</v>
+        <v>87.5</v>
       </c>
       <c r="AW107">
-        <v>48.5</v>
+        <v>9</v>
       </c>
       <c r="AX107" t="inlineStr">
         <is>
@@ -27472,17 +27467,17 @@
       </c>
       <c r="AY107" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>D</t>
         </is>
       </c>
       <c r="AZ107" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>D</t>
         </is>
       </c>
       <c r="BA107" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>D</t>
         </is>
       </c>
       <c r="BB107" t="inlineStr">
@@ -27496,7 +27491,7 @@
         </is>
       </c>
       <c r="BD107">
-        <v>1.67</v>
+        <v>0.01</v>
       </c>
       <c r="BE107" t="inlineStr">
         <is>
@@ -27505,28 +27500,28 @@
       </c>
       <c r="BF107" t="inlineStr">
         <is>
-          <t>20th percentile</t>
+          <t>below 20th percentile</t>
         </is>
       </c>
       <c r="BG107" t="inlineStr">
         <is>
-          <t>$33,477.14</t>
+          <t>$53,717.31</t>
         </is>
       </c>
       <c r="BH107">
-        <v>33477.14</v>
+        <v>53717.31000000001</v>
       </c>
       <c r="BI107">
         <v>38182.45</v>
       </c>
       <c r="BJ107" t="inlineStr">
         <is>
-          <t>BELOW</t>
+          <t>ABOVE</t>
         </is>
       </c>
       <c r="BK107" t="inlineStr">
         <is>
-          <t>lean democratic__D</t>
+          <t>NA__D</t>
         </is>
       </c>
       <c r="BN107" t="inlineStr">
@@ -27548,12 +27543,12 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>L000551</t>
+          <t>L000590</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Barbara</t>
+          <t>Susie</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -27568,22 +27563,22 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>NV</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>0613</t>
+          <t>3203</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>H8CA09060</t>
+          <t>H8NV03200</t>
         </is>
       </c>
       <c r="L108" t="inlineStr">
@@ -27597,10 +27592,10 @@
         </is>
       </c>
       <c r="N108">
-        <v>88.40000000000001</v>
+        <v>51.9</v>
       </c>
       <c r="O108">
-        <v>0</v>
+        <v>42.8</v>
       </c>
       <c r="P108" t="inlineStr">
         <is>
@@ -27608,38 +27603,43 @@
         </is>
       </c>
       <c r="Q108">
-        <v>88.40000000000001</v>
+        <v>9.1</v>
       </c>
       <c r="R108" t="inlineStr">
         <is>
-          <t>California</t>
+          <t>Nevada</t>
         </is>
       </c>
       <c r="S108" t="inlineStr">
         <is>
-          <t>CA-13</t>
+          <t>NV-03</t>
+        </is>
+      </c>
+      <c r="T108" t="inlineStr">
+        <is>
+          <t>lean democratic</t>
         </is>
       </c>
       <c r="U108">
-        <v>740683</v>
+        <v>739847</v>
       </c>
       <c r="V108">
-        <v>64948</v>
+        <v>64740</v>
       </c>
       <c r="W108">
-        <v>36.6</v>
+        <v>38.6</v>
       </c>
       <c r="X108">
-        <v>27.069</v>
+        <v>18.367</v>
       </c>
       <c r="Y108">
-        <v>4.351</v>
+        <v>9.875999999999999</v>
       </c>
       <c r="Z108">
-        <v>65.55500000000001</v>
+        <v>42.516</v>
       </c>
       <c r="AA108">
-        <v>46.129</v>
+        <v>31.415</v>
       </c>
       <c r="AB108">
         <v>55322</v>
@@ -27666,7 +27666,7 @@
       </c>
       <c r="AI108" t="inlineStr">
         <is>
-          <t>BELOW</t>
+          <t>ABOVE</t>
         </is>
       </c>
       <c r="AJ108" t="inlineStr">
@@ -27676,7 +27676,7 @@
       </c>
       <c r="AK108" t="inlineStr">
         <is>
-          <t>BELOW</t>
+          <t>ABOVE</t>
         </is>
       </c>
       <c r="AL108" t="inlineStr">
@@ -27690,34 +27690,34 @@
         </is>
       </c>
       <c r="AN108">
-        <v>90.8</v>
+        <v>47.2</v>
       </c>
       <c r="AO108">
-        <v>9.199999999999999</v>
+        <v>46</v>
       </c>
       <c r="AP108">
-        <v>86</v>
+        <v>46.5</v>
       </c>
       <c r="AQ108">
-        <v>6.7</v>
+        <v>47.5</v>
       </c>
       <c r="AR108">
-        <v>88.5</v>
+        <v>36.1</v>
       </c>
       <c r="AS108">
-        <v>11.5</v>
+        <v>60.8</v>
       </c>
       <c r="AT108">
-        <v>86.8</v>
+        <v>42.9</v>
       </c>
       <c r="AU108">
-        <v>0</v>
+        <v>50.4</v>
       </c>
       <c r="AV108">
-        <v>87.5</v>
+        <v>49.3</v>
       </c>
       <c r="AW108">
-        <v>9</v>
+        <v>48.5</v>
       </c>
       <c r="AX108" t="inlineStr">
         <is>
@@ -27726,17 +27726,17 @@
       </c>
       <c r="AY108" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>R</t>
         </is>
       </c>
       <c r="AZ108" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>R</t>
         </is>
       </c>
       <c r="BA108" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>R</t>
         </is>
       </c>
       <c r="BB108" t="inlineStr">
@@ -27750,7 +27750,7 @@
         </is>
       </c>
       <c r="BD108">
-        <v>0.01</v>
+        <v>1.67</v>
       </c>
       <c r="BE108" t="inlineStr">
         <is>
@@ -27759,28 +27759,28 @@
       </c>
       <c r="BF108" t="inlineStr">
         <is>
-          <t>below 20th percentile</t>
+          <t>20th percentile</t>
         </is>
       </c>
       <c r="BG108" t="inlineStr">
         <is>
-          <t>$53,717.31</t>
+          <t>$33,477.14</t>
         </is>
       </c>
       <c r="BH108">
-        <v>53717.31000000001</v>
+        <v>33477.14</v>
       </c>
       <c r="BI108">
         <v>38182.45</v>
       </c>
       <c r="BJ108" t="inlineStr">
         <is>
-          <t>ABOVE</t>
+          <t>BELOW</t>
         </is>
       </c>
       <c r="BK108" t="inlineStr">
         <is>
-          <t>NA__D</t>
+          <t>lean democratic__D</t>
         </is>
       </c>
       <c r="BN108" t="inlineStr">
